--- a/mapping/mml_referral_mapping.xlsx
+++ b/mapping/mml_referral_mapping.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="444">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -1062,14 +1061,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/term_mappings/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*値は"="で固定</t>
     <rPh sb="1" eb="2">
       <t>アタイ</t>
@@ -1084,10 +1075,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/term_mappings/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_QUANTITY</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1120,14 +1107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.12]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.12]/term_mappings/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_IDENTIFIER</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1394,14 +1373,6 @@
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]</t>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/term_mappings/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1434,14 +1405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/term_mappings/defining_code/terminology_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/magnitude</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1546,14 +1509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/term_mappings/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1582,14 +1537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/term_mappings/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/items[at0.13]/magnitude</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1675,6 +1622,62 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.free_text.v1 and name/value='refer to unknown name']/items[at0001 and name/value='Free text']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2141,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM224" workbookViewId="0">
-      <selection activeCell="BC236" sqref="BC236"/>
+    <sheetView tabSelected="1" topLeftCell="E146" workbookViewId="0">
+      <selection activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3619,7 +3622,7 @@
       </c>
       <c r="F72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="L72" s="7"/>
     </row>
@@ -3631,10 +3634,10 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="H73" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>291</v>
+        <v>431</v>
       </c>
       <c r="L73" s="7"/>
     </row>
@@ -3658,7 +3661,7 @@
         <v>271</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L74" s="7"/>
     </row>
@@ -3682,7 +3685,7 @@
         <v>273</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L75" s="7"/>
     </row>
@@ -4029,7 +4032,7 @@
         <v>283</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L91" s="7"/>
     </row>
@@ -4046,7 +4049,7 @@
       </c>
       <c r="F92" s="3"/>
       <c r="K92" s="7" t="s">
-        <v>294</v>
+        <v>432</v>
       </c>
       <c r="L92" s="7"/>
     </row>
@@ -4057,10 +4060,10 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>293</v>
+        <v>433</v>
       </c>
       <c r="L93" s="7"/>
     </row>
@@ -4080,10 +4083,10 @@
         <v>208</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L94" s="7"/>
     </row>
@@ -4108,7 +4111,7 @@
         <v>283</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L95" s="7"/>
     </row>
@@ -4147,7 +4150,7 @@
         <v>283</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L97" s="7"/>
     </row>
@@ -4173,7 +4176,7 @@
         <v>285</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L98" s="7"/>
     </row>
@@ -4192,7 +4195,7 @@
       <c r="F99" s="3"/>
       <c r="I99" s="18"/>
       <c r="K99" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L99" s="7"/>
     </row>
@@ -4213,10 +4216,10 @@
         <v>206</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L100" s="7"/>
     </row>
@@ -4241,7 +4244,7 @@
         <v>283</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L101" s="7"/>
     </row>
@@ -4258,7 +4261,7 @@
       </c>
       <c r="F102" s="3"/>
       <c r="K102" s="12" t="s">
-        <v>304</v>
+        <v>443</v>
       </c>
       <c r="L102" s="7"/>
     </row>
@@ -4269,10 +4272,10 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="H103" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>303</v>
+        <v>434</v>
       </c>
       <c r="L103" s="7"/>
     </row>
@@ -4292,10 +4295,10 @@
         <v>208</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L104" s="7"/>
     </row>
@@ -4320,7 +4323,7 @@
         <v>283</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L105" s="7"/>
     </row>
@@ -4376,10 +4379,10 @@
         <v>168</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L108" s="7"/>
     </row>
@@ -4402,10 +4405,10 @@
         <v>169</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L109" s="7"/>
     </row>
@@ -4425,7 +4428,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L110" s="7"/>
     </row>
@@ -4446,10 +4449,10 @@
         <v>170</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L111" s="7"/>
     </row>
@@ -4473,7 +4476,7 @@
         <v>283</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L112" s="7"/>
     </row>
@@ -4497,7 +4500,7 @@
         <v>283</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L113" s="7"/>
     </row>
@@ -4521,7 +4524,7 @@
         <v>283</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L114" s="7"/>
     </row>
@@ -4545,7 +4548,7 @@
         <v>283</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L115" s="7"/>
     </row>
@@ -4569,7 +4572,7 @@
         <v>283</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L116" s="7"/>
     </row>
@@ -4593,7 +4596,7 @@
         <v>283</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L117" s="7"/>
     </row>
@@ -4634,7 +4637,7 @@
         <v>283</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L119" s="7"/>
     </row>
@@ -4688,10 +4691,10 @@
         <v>222</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L122" s="7"/>
     </row>
@@ -4712,10 +4715,10 @@
         <v>223</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L123" s="7"/>
     </row>
@@ -4739,7 +4742,7 @@
         <v>283</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L124" s="7"/>
     </row>
@@ -4763,7 +4766,7 @@
         <v>283</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L125" s="7"/>
     </row>
@@ -4787,7 +4790,7 @@
         <v>283</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L126" s="7"/>
     </row>
@@ -4811,7 +4814,7 @@
         <v>283</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L127" s="7"/>
     </row>
@@ -4835,7 +4838,7 @@
         <v>283</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L128" s="7"/>
     </row>
@@ -4859,7 +4862,7 @@
         <v>283</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L129" s="7"/>
     </row>
@@ -4886,7 +4889,7 @@
         <v>283</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L130" s="7"/>
     </row>
@@ -4907,13 +4910,13 @@
       <c r="F131" s="3"/>
       <c r="H131" s="7"/>
       <c r="I131" s="12" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J131" s="12" t="s">
         <v>283</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L131" s="7"/>
     </row>
@@ -4940,7 +4943,7 @@
         <v>283</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L132" s="7"/>
     </row>
@@ -4963,13 +4966,13 @@
         <v>233</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J133" s="12" t="s">
         <v>283</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L133" s="7"/>
     </row>
@@ -4998,7 +5001,7 @@
         <v>283</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L134" s="7"/>
     </row>
@@ -5016,7 +5019,7 @@
       </c>
       <c r="F135" s="3"/>
       <c r="H135" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L135" s="7"/>
     </row>
@@ -5024,22 +5027,22 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="H136" s="7"/>
       <c r="I136" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L136" s="7"/>
     </row>
@@ -5068,7 +5071,7 @@
         <v>283</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L137" s="7"/>
     </row>
@@ -5097,20 +5100,20 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="H139" s="7"/>
       <c r="I139" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J139" s="12" t="s">
         <v>283</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L139" s="7"/>
     </row>
@@ -5134,10 +5137,10 @@
         <v>239</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L140" s="7"/>
     </row>
@@ -5155,7 +5158,7 @@
       </c>
       <c r="F141" s="3"/>
       <c r="H141" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
@@ -5164,20 +5167,20 @@
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="H142" s="7"/>
       <c r="I142" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L142" s="7"/>
     </row>
@@ -5197,16 +5200,16 @@
       </c>
       <c r="F143" s="3"/>
       <c r="H143" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J143" s="12" t="s">
         <v>283</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L143" s="7"/>
     </row>
@@ -5224,7 +5227,7 @@
       </c>
       <c r="F144" s="3"/>
       <c r="H144" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
@@ -5235,21 +5238,21 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="I145" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L145" s="7"/>
     </row>
@@ -5276,7 +5279,7 @@
         <v>283</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L146" s="7"/>
     </row>
@@ -5296,16 +5299,16 @@
       </c>
       <c r="F147" s="3"/>
       <c r="H147" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J147" s="12" t="s">
         <v>283</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L147" s="7"/>
     </row>
@@ -5334,19 +5337,19 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="I149" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L149" s="7"/>
     </row>
@@ -5373,7 +5376,7 @@
         <v>283</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L150" s="7"/>
     </row>
@@ -5399,10 +5402,10 @@
         <v>245</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L151" s="7"/>
     </row>
@@ -5431,19 +5434,19 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="I153" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L153" s="7"/>
     </row>
@@ -5461,7 +5464,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
       <c r="K154" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L154" s="7"/>
     </row>
@@ -5503,7 +5506,7 @@
         <v>283</v>
       </c>
       <c r="K156" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L156" s="7"/>
     </row>
@@ -5526,10 +5529,10 @@
         <v>139</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K157" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L157" s="7"/>
     </row>
@@ -5549,7 +5552,7 @@
       <c r="I158" s="18"/>
       <c r="J158" s="18"/>
       <c r="K158" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L158" s="7"/>
     </row>
@@ -5570,10 +5573,10 @@
         <v>206</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K159" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L159" s="7"/>
     </row>
@@ -5598,7 +5601,7 @@
         <v>283</v>
       </c>
       <c r="K160" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L160" s="7"/>
     </row>
@@ -5615,7 +5618,7 @@
       </c>
       <c r="F161" s="3"/>
       <c r="K161" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="L161" s="7"/>
     </row>
@@ -5626,10 +5629,10 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="H162" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K162" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="L162" s="7"/>
     </row>
@@ -5649,10 +5652,10 @@
         <v>208</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K163" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L163" s="7"/>
     </row>
@@ -5677,7 +5680,7 @@
         <v>283</v>
       </c>
       <c r="K164" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L164" s="7"/>
     </row>
@@ -5717,7 +5720,7 @@
         <v>283</v>
       </c>
       <c r="K166" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L166" s="7"/>
     </row>
@@ -5740,10 +5743,10 @@
         <v>139</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K167" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L167" s="7"/>
     </row>
@@ -5763,7 +5766,7 @@
       <c r="I168" s="18"/>
       <c r="J168" s="18"/>
       <c r="K168" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L168" s="7"/>
     </row>
@@ -5784,10 +5787,10 @@
         <v>206</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K169" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L169" s="7"/>
     </row>
@@ -5809,10 +5812,10 @@
         <v>207</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K170" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="L170" s="7"/>
     </row>
@@ -5829,7 +5832,7 @@
       </c>
       <c r="F171" s="3"/>
       <c r="K171" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="L171" s="7"/>
     </row>
@@ -5840,10 +5843,10 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="H172" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K172" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="L172" s="7"/>
     </row>
@@ -5863,10 +5866,10 @@
         <v>208</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K173" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L173" s="7"/>
     </row>
@@ -5891,7 +5894,7 @@
         <v>283</v>
       </c>
       <c r="K174" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L174" s="7"/>
     </row>
@@ -5926,7 +5929,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="H176" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
@@ -5943,13 +5946,13 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="I177" s="13" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L177" s="7"/>
     </row>
@@ -5967,13 +5970,13 @@
       </c>
       <c r="F178" s="3"/>
       <c r="I178" s="13" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="J178" s="13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L178" s="7"/>
     </row>
@@ -5991,7 +5994,7 @@
       </c>
       <c r="F179" s="3"/>
       <c r="K179" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L179" s="7"/>
     </row>
@@ -6003,10 +6006,10 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="H180" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L180" s="7"/>
     </row>
@@ -6027,10 +6030,10 @@
         <v>128</v>
       </c>
       <c r="J181" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="L181" s="7"/>
     </row>
@@ -6054,7 +6057,7 @@
         <v>283</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L182" s="7"/>
     </row>
@@ -6106,10 +6109,10 @@
         <v>139</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="L185" s="7"/>
     </row>
@@ -6127,7 +6130,7 @@
       </c>
       <c r="F186" s="3"/>
       <c r="K186" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L186" s="7"/>
     </row>
@@ -6146,10 +6149,10 @@
         <v>140</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L187" s="7"/>
     </row>
@@ -6171,7 +6174,7 @@
         <v>283</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L188" s="7"/>
     </row>
@@ -6195,7 +6198,7 @@
         <v>283</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L189" s="7"/>
     </row>
@@ -6217,7 +6220,7 @@
         <v>283</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="L190" s="7"/>
     </row>
@@ -6241,7 +6244,7 @@
         <v>283</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L191" s="7"/>
     </row>
@@ -6265,7 +6268,7 @@
         <v>283</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L192" s="7"/>
     </row>
@@ -6306,7 +6309,7 @@
         <v>283</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L194" s="7"/>
     </row>
@@ -6329,10 +6332,10 @@
         <v>139</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L195" s="7"/>
     </row>
@@ -6352,7 +6355,7 @@
       <c r="I196" s="18"/>
       <c r="J196" s="18"/>
       <c r="K196" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L196" s="7"/>
     </row>
@@ -6373,10 +6376,10 @@
         <v>206</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L197" s="7"/>
     </row>
@@ -6401,7 +6404,7 @@
         <v>283</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L198" s="7"/>
     </row>
@@ -6418,7 +6421,7 @@
       </c>
       <c r="F199" s="3"/>
       <c r="K199" s="7" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="L199" s="7"/>
     </row>
@@ -6429,10 +6432,10 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="H200" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="L200" s="7"/>
     </row>
@@ -6452,10 +6455,10 @@
         <v>208</v>
       </c>
       <c r="J201" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L201" s="7"/>
     </row>
@@ -6480,7 +6483,7 @@
         <v>283</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="L202" s="7"/>
     </row>
@@ -6519,7 +6522,7 @@
         <v>283</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L204" s="7"/>
     </row>
@@ -6542,10 +6545,10 @@
         <v>139</v>
       </c>
       <c r="J205" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L205" s="7"/>
     </row>
@@ -6565,7 +6568,7 @@
       <c r="I206" s="18"/>
       <c r="J206" s="18"/>
       <c r="K206" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L206" s="7"/>
     </row>
@@ -6586,10 +6589,10 @@
         <v>206</v>
       </c>
       <c r="J207" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="L207" s="7"/>
     </row>
@@ -6614,7 +6617,7 @@
         <v>283</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="L208" s="7"/>
     </row>
@@ -6631,7 +6634,7 @@
       </c>
       <c r="F209" s="3"/>
       <c r="K209" s="7" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="L209" s="7"/>
     </row>
@@ -6642,10 +6645,10 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="H210" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="L210" s="7"/>
     </row>
@@ -6665,10 +6668,10 @@
         <v>208</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="L211" s="7"/>
     </row>
@@ -6693,7 +6696,7 @@
         <v>283</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="L212" s="7"/>
     </row>
@@ -6749,10 +6752,10 @@
         <v>168</v>
       </c>
       <c r="J215" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L215" s="7"/>
     </row>
@@ -6775,10 +6778,10 @@
         <v>169</v>
       </c>
       <c r="J216" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L216" s="7"/>
     </row>
@@ -6798,7 +6801,7 @@
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
       <c r="K217" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="L217" s="7"/>
     </row>
@@ -6819,10 +6822,10 @@
         <v>170</v>
       </c>
       <c r="J218" s="13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="L218" s="7"/>
     </row>
@@ -6846,7 +6849,7 @@
         <v>283</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L219" s="7"/>
     </row>
@@ -6870,7 +6873,7 @@
         <v>283</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="L220" s="7"/>
     </row>
@@ -6894,7 +6897,7 @@
         <v>283</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="L221" s="7"/>
     </row>
@@ -6918,7 +6921,7 @@
         <v>283</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="L222" s="7"/>
     </row>
@@ -6942,7 +6945,7 @@
         <v>283</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="L223" s="7"/>
     </row>
@@ -6966,7 +6969,7 @@
         <v>283</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L224" s="7"/>
     </row>
@@ -7007,7 +7010,7 @@
         <v>283</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="L226" s="7"/>
     </row>
@@ -7061,10 +7064,10 @@
         <v>178</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="L229" s="7"/>
     </row>
@@ -7085,10 +7088,10 @@
         <v>248</v>
       </c>
       <c r="J230" s="13" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="L230" s="7"/>
     </row>
@@ -7112,7 +7115,7 @@
         <v>283</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="L231" s="7"/>
     </row>
@@ -7136,7 +7139,7 @@
         <v>283</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="L232" s="7"/>
     </row>
@@ -7160,7 +7163,7 @@
         <v>283</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L233" s="7"/>
     </row>
@@ -7184,7 +7187,7 @@
         <v>283</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="L234" s="7"/>
     </row>
@@ -7208,7 +7211,7 @@
         <v>283</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="L235" s="7"/>
     </row>
@@ -7232,7 +7235,7 @@
         <v>283</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="L236" s="7"/>
     </row>
@@ -7259,7 +7262,7 @@
       </c>
       <c r="J237" s="12"/>
       <c r="K237" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="L237" s="7"/>
     </row>

--- a/mapping/mml_referral_mapping.xlsx
+++ b/mapping/mml_referral_mapping.xlsx
@@ -437,10 +437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>master id/checkDigitShema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPi:otherId</t>
   </si>
   <si>
@@ -578,10 +574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Address type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Unstructured address</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -618,6 +610,160 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>structured_telecoms/Area code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured_telecoms/City code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/Number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unstructured telecoms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/country code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPi:accountNumber</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.patient_module.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPi:socialIdentification</t>
+  </si>
+  <si>
+    <t>social identification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPi:death</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.death.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Death</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPi:date</t>
+  </si>
+  <si>
+    <t>date/dateTime</t>
+  </si>
+  <si>
+    <t>Date time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.exposure.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exposure Details/Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPsi:PersonalizedInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master id/checkDigitSchema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlFc:Facility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.organisation-mml.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier check digit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlDp:Department</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlDp:name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlDp:repCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlDp:tableId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPsi:addresses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Structured address/city</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Structured address/town</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Structured address/Home number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.telecom_details-japan.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Telecom type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -650,141 +796,74 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mmlPi:accountNumber</t>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.patient_module.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlPi:socialIdentification</t>
-  </si>
-  <si>
-    <t>social identification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlPi:death</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.death.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Death</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlPi:date</t>
-  </si>
-  <si>
-    <t>date/dateTime</t>
-  </si>
-  <si>
-    <t>Date time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.exposure.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Exposure Details/Description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlPsi:PersonalizedInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>master id/checkDigitSchema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlFc:Facility</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.organisation-mml.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of organization</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Identifier type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Identifier check digit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Identifier chedi digit schema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlDp:Department</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlDp:name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlDp:repCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlDp:tableId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlPsi:addresses</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Structured address/city</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Structured address/town</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Structured address/Home number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zip code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>country code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.telecom_details-japan.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>email address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Telecom type</t>
+    <t>Service requested</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-INSTRUCTION.request-referral.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reason for request</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.problem_diagnosis.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.story.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.multimedia.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.family_history.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.clinical_synopsis.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Synopsis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.citation.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.reason_for_encounter.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Presenting problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Synopsis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.free_text.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Free text</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -792,114 +871,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*structured_telecoms/City code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>structured_telecoms/Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extention</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unstructured telecoms</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/country code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*memo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Service requested</t>
-  </si>
-  <si>
-    <t>openEHR-EHR-INSTRUCTION.request-referral.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reason for request</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.problem_diagnosis.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-OBSERVATION.story.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Story</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.multimedia.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.family_history.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Story</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.clinical_synopsis.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Synopsis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.citation.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.reason_for_encounter.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Presenting problem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Synopsis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.free_text.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Free text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/Area code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*structured_telecoms/City code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extention</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1347,9 +1319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1370,9 +1339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1678,6 +1644,41 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master id/checkDigitSchema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address type with HL7 table</t>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier check digit schema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured telecoms/City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1685,7 +1686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1709,8 +1710,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,6 +1736,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,7 +1796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1839,6 +1861,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2144,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E146" workbookViewId="0">
-      <selection activeCell="K161" sqref="K161"/>
+    <sheetView tabSelected="1" topLeftCell="E216" workbookViewId="0">
+      <selection activeCell="K242" sqref="K242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2176,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -2283,10 +2323,10 @@
         <v>119</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7"/>
     </row>
@@ -2366,8 +2406,8 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="19" t="s">
-        <v>130</v>
+      <c r="I12" s="22" t="s">
+        <v>435</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2375,7 +2415,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2393,7 +2433,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>7</v>
@@ -2402,12 +2442,12 @@
         <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="7"/>
@@ -2427,7 +2467,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2448,7 +2488,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2488,7 +2528,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -2509,7 +2549,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2566,7 +2606,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="7"/>
@@ -2605,7 +2645,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="7"/>
@@ -2625,7 +2665,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2646,7 +2686,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2665,7 +2705,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2686,7 +2726,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2707,7 +2747,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="7"/>
@@ -2716,7 +2756,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
@@ -2726,10 +2766,10 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2737,7 +2777,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
@@ -2745,12 +2785,12 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2758,7 +2798,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
@@ -2771,7 +2811,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2780,7 +2820,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>7</v>
@@ -2792,7 +2832,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2800,7 +2840,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
@@ -2812,10 +2852,10 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2824,7 +2864,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>7</v>
@@ -2836,7 +2876,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2845,7 +2885,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>7</v>
@@ -2857,7 +2897,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2865,7 +2905,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
@@ -2875,14 +2915,14 @@
         <v>8</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="7"/>
@@ -2891,7 +2931,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2918,7 +2958,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I39" s="19"/>
       <c r="K39" s="7"/>
@@ -2942,7 +2982,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="7"/>
@@ -2965,8 +3005,8 @@
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="21" t="s">
-        <v>169</v>
+      <c r="I41" s="23" t="s">
+        <v>436</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="7"/>
@@ -3007,7 +3047,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3028,7 +3068,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -3070,7 +3110,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -3091,7 +3131,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3112,7 +3152,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -3133,7 +3173,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -3151,7 +3191,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I50" s="19"/>
       <c r="K50" s="7"/>
@@ -3173,7 +3213,7 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -3208,7 +3248,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I53" s="19"/>
       <c r="K53" s="7"/>
@@ -3232,7 +3272,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="7"/>
@@ -3254,7 +3294,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -3275,7 +3315,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="7"/>
@@ -3297,7 +3337,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -3318,7 +3358,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3339,7 +3379,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -3360,7 +3400,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -3381,7 +3421,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="7"/>
@@ -3390,7 +3430,7 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
@@ -3402,10 +3442,10 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="7"/>
@@ -3414,7 +3454,7 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
@@ -3427,7 +3467,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3435,11 +3475,11 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>8</v>
@@ -3447,10 +3487,10 @@
       <c r="F64" s="11"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="7"/>
@@ -3460,10 +3500,10 @@
       <c r="A65" s="3"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>13</v>
@@ -3472,7 +3512,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="7"/>
@@ -3494,16 +3534,16 @@
       </c>
       <c r="F66" s="3"/>
       <c r="H66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L66" s="7"/>
     </row>
@@ -3515,16 +3555,16 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L67" s="7"/>
     </row>
@@ -3550,14 +3590,14 @@
         <v>76</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="H69" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -3574,13 +3614,13 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="I70" s="13" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L70" s="7"/>
     </row>
@@ -3598,13 +3638,13 @@
       </c>
       <c r="F71" s="3"/>
       <c r="I71" s="13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L71" s="7"/>
     </row>
@@ -3622,7 +3662,7 @@
       </c>
       <c r="F72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L72" s="7"/>
     </row>
@@ -3634,10 +3674,10 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="H73" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="L73" s="7"/>
     </row>
@@ -3655,13 +3695,13 @@
       </c>
       <c r="F74" s="3"/>
       <c r="I74" s="13" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L74" s="7"/>
     </row>
@@ -3679,13 +3719,13 @@
       </c>
       <c r="F75" s="3"/>
       <c r="I75" s="13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L75" s="7"/>
     </row>
@@ -3734,13 +3774,13 @@
         <v>19</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L78" s="7"/>
     </row>
@@ -3758,7 +3798,7 @@
       </c>
       <c r="F79" s="3"/>
       <c r="K79" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L79" s="7"/>
     </row>
@@ -3774,13 +3814,13 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="I80" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L80" s="7"/>
     </row>
@@ -3796,13 +3836,13 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="I81" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L81" s="7"/>
     </row>
@@ -3820,13 +3860,13 @@
       </c>
       <c r="F82" s="3"/>
       <c r="I82" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L82" s="7"/>
     </row>
@@ -3842,13 +3882,13 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="I83" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L83" s="7"/>
     </row>
@@ -3866,13 +3906,13 @@
       </c>
       <c r="F84" s="3"/>
       <c r="I84" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L84" s="7"/>
     </row>
@@ -3890,20 +3930,20 @@
       </c>
       <c r="F85" s="3"/>
       <c r="I85" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
@@ -3912,7 +3952,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="H86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -3930,14 +3970,14 @@
         <v>11</v>
       </c>
       <c r="F87" s="3"/>
-      <c r="I87" s="12" t="s">
-        <v>205</v>
+      <c r="I87" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L87" s="7"/>
     </row>
@@ -3957,13 +3997,13 @@
         <v>19</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L88" s="7"/>
     </row>
@@ -3983,7 +4023,7 @@
       <c r="I89" s="18"/>
       <c r="J89" s="18"/>
       <c r="K89" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L89" s="7"/>
     </row>
@@ -4001,13 +4041,13 @@
       </c>
       <c r="F90" s="3"/>
       <c r="I90" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L90" s="7"/>
     </row>
@@ -4026,13 +4066,13 @@
         <v>19</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L91" s="7"/>
     </row>
@@ -4049,7 +4089,7 @@
       </c>
       <c r="F92" s="3"/>
       <c r="K92" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="L92" s="7"/>
     </row>
@@ -4060,10 +4100,10 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="L93" s="7"/>
     </row>
@@ -4080,13 +4120,13 @@
       </c>
       <c r="F94" s="3"/>
       <c r="I94" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L94" s="7"/>
     </row>
@@ -4104,28 +4144,28 @@
       <c r="F95" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I95" s="12" t="s">
-        <v>209</v>
+      <c r="I95" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="H96" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -4133,7 +4173,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
@@ -4143,14 +4183,14 @@
         <v>11</v>
       </c>
       <c r="F97" s="3"/>
-      <c r="I97" s="12" t="s">
-        <v>205</v>
+      <c r="I97" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L97" s="7"/>
     </row>
@@ -4158,7 +4198,7 @@
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>7</v>
@@ -4170,13 +4210,13 @@
         <v>19</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L98" s="7"/>
     </row>
@@ -4184,7 +4224,7 @@
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>7</v>
@@ -4195,7 +4235,7 @@
       <c r="F99" s="3"/>
       <c r="I99" s="18"/>
       <c r="K99" s="12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L99" s="7"/>
     </row>
@@ -4213,13 +4253,13 @@
       </c>
       <c r="F100" s="3"/>
       <c r="I100" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L100" s="7"/>
     </row>
@@ -4238,13 +4278,13 @@
         <v>19</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L101" s="7"/>
     </row>
@@ -4261,7 +4301,7 @@
       </c>
       <c r="F102" s="3"/>
       <c r="K102" s="12" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L102" s="7"/>
     </row>
@@ -4272,10 +4312,10 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="H103" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L103" s="7"/>
     </row>
@@ -4292,13 +4332,13 @@
       </c>
       <c r="F104" s="3"/>
       <c r="I104" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L104" s="7"/>
     </row>
@@ -4316,21 +4356,21 @@
       <c r="F105" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I105" s="12" t="s">
-        <v>209</v>
+      <c r="I105" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4339,7 +4379,7 @@
       </c>
       <c r="F106" s="3"/>
       <c r="H106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -4376,13 +4416,13 @@
         <v>19</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L108" s="7"/>
     </row>
@@ -4401,14 +4441,14 @@
       <c r="F109" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I109" s="17" t="s">
-        <v>169</v>
+      <c r="I109" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L109" s="7"/>
     </row>
@@ -4428,7 +4468,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L110" s="7"/>
     </row>
@@ -4446,13 +4486,13 @@
       </c>
       <c r="F111" s="6"/>
       <c r="I111" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L111" s="7"/>
     </row>
@@ -4470,13 +4510,13 @@
       </c>
       <c r="F112" s="6"/>
       <c r="I112" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L112" s="7"/>
     </row>
@@ -4494,13 +4534,13 @@
       </c>
       <c r="F113" s="6"/>
       <c r="I113" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L113" s="7"/>
     </row>
@@ -4518,13 +4558,13 @@
       </c>
       <c r="F114" s="6"/>
       <c r="I114" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L114" s="7"/>
     </row>
@@ -4542,13 +4582,13 @@
       </c>
       <c r="F115" s="6"/>
       <c r="I115" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L115" s="7"/>
     </row>
@@ -4566,13 +4606,13 @@
       </c>
       <c r="F116" s="6"/>
       <c r="I116" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J116" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L116" s="7"/>
     </row>
@@ -4590,13 +4630,13 @@
       </c>
       <c r="F117" s="6"/>
       <c r="I117" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J117" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L117" s="7"/>
     </row>
@@ -4612,7 +4652,7 @@
       </c>
       <c r="F118" s="3"/>
       <c r="H118" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
@@ -4631,13 +4671,13 @@
       </c>
       <c r="F119" s="3"/>
       <c r="I119" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J119" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L119" s="7"/>
     </row>
@@ -4667,7 +4707,7 @@
       </c>
       <c r="F121" s="3"/>
       <c r="H121" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
@@ -4688,13 +4728,13 @@
         <v>60</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L122" s="7"/>
     </row>
@@ -4712,13 +4752,13 @@
       </c>
       <c r="F123" s="3"/>
       <c r="I123" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L123" s="7"/>
     </row>
@@ -4736,13 +4776,13 @@
       </c>
       <c r="F124" s="3"/>
       <c r="I124" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J124" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L124" s="7"/>
     </row>
@@ -4760,13 +4800,13 @@
       </c>
       <c r="F125" s="3"/>
       <c r="I125" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J125" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L125" s="7"/>
     </row>
@@ -4784,13 +4824,13 @@
       </c>
       <c r="F126" s="3"/>
       <c r="I126" s="13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J126" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L126" s="7"/>
     </row>
@@ -4808,13 +4848,13 @@
       </c>
       <c r="F127" s="3"/>
       <c r="I127" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J127" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L127" s="7"/>
     </row>
@@ -4832,13 +4872,13 @@
       </c>
       <c r="F128" s="3"/>
       <c r="I128" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J128" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L128" s="7"/>
     </row>
@@ -4856,13 +4896,13 @@
       </c>
       <c r="F129" s="3"/>
       <c r="I129" s="16" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J129" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L129" s="7"/>
     </row>
@@ -4880,16 +4920,16 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="H130" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L130" s="7"/>
     </row>
@@ -4910,13 +4950,13 @@
       <c r="F131" s="3"/>
       <c r="H131" s="7"/>
       <c r="I131" s="12" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L131" s="7"/>
     </row>
@@ -4934,16 +4974,16 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="H132" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L132" s="7"/>
     </row>
@@ -4963,16 +5003,16 @@
       </c>
       <c r="F133" s="3"/>
       <c r="H133" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L133" s="7"/>
     </row>
@@ -4992,16 +5032,16 @@
       </c>
       <c r="F134" s="3"/>
       <c r="H134" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L134" s="7"/>
     </row>
@@ -5019,7 +5059,7 @@
       </c>
       <c r="F135" s="3"/>
       <c r="H135" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L135" s="7"/>
     </row>
@@ -5027,22 +5067,22 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="H136" s="7"/>
       <c r="I136" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L136" s="7"/>
     </row>
@@ -5062,16 +5102,16 @@
       </c>
       <c r="F137" s="3"/>
       <c r="H137" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L137" s="7"/>
     </row>
@@ -5089,7 +5129,7 @@
       </c>
       <c r="F138" s="3"/>
       <c r="H138" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
@@ -5100,20 +5140,20 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="H139" s="7"/>
       <c r="I139" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L139" s="7"/>
     </row>
@@ -5131,16 +5171,16 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="H140" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I140" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I140" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="J140" s="12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L140" s="7"/>
     </row>
@@ -5158,7 +5198,7 @@
       </c>
       <c r="F141" s="3"/>
       <c r="H141" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
@@ -5167,20 +5207,20 @@
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="H142" s="7"/>
       <c r="I142" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L142" s="7"/>
     </row>
@@ -5200,16 +5240,16 @@
       </c>
       <c r="F143" s="3"/>
       <c r="H143" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L143" s="7"/>
     </row>
@@ -5227,7 +5267,7 @@
       </c>
       <c r="F144" s="3"/>
       <c r="H144" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
@@ -5238,21 +5278,21 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="I145" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="L145" s="7"/>
     </row>
@@ -5270,16 +5310,16 @@
       </c>
       <c r="F146" s="3"/>
       <c r="H146" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L146" s="7"/>
     </row>
@@ -5299,16 +5339,16 @@
       </c>
       <c r="F147" s="3"/>
       <c r="H147" t="s">
+        <v>341</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K147" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="I147" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="J147" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="K147" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="L147" s="7"/>
     </row>
@@ -5326,7 +5366,7 @@
       </c>
       <c r="F148" s="3"/>
       <c r="H148" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
@@ -5337,19 +5377,19 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="I149" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L149" s="7"/>
     </row>
@@ -5367,16 +5407,16 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="H150" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L150" s="7"/>
     </row>
@@ -5396,16 +5436,16 @@
       </c>
       <c r="F151" s="3"/>
       <c r="H151" t="s">
+        <v>235</v>
+      </c>
+      <c r="I151" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I151" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="J151" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L151" s="7"/>
     </row>
@@ -5423,7 +5463,7 @@
       </c>
       <c r="F152" s="3"/>
       <c r="H152" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
@@ -5434,19 +5474,19 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="I153" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>360</v>
+        <v>330</v>
+      </c>
+      <c r="K153" s="27" t="s">
+        <v>443</v>
       </c>
       <c r="L153" s="7"/>
     </row>
@@ -5464,7 +5504,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
       <c r="K154" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L154" s="7"/>
     </row>
@@ -5473,7 +5513,7 @@
         <v>109</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
@@ -5482,7 +5522,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="H155" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L155" s="7"/>
     </row>
@@ -5499,14 +5539,14 @@
         <v>11</v>
       </c>
       <c r="F156" s="3"/>
-      <c r="I156" s="12" t="s">
-        <v>205</v>
+      <c r="I156" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K156" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L156" s="7"/>
     </row>
@@ -5526,13 +5566,13 @@
         <v>19</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K157" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L157" s="7"/>
     </row>
@@ -5552,7 +5592,7 @@
       <c r="I158" s="18"/>
       <c r="J158" s="18"/>
       <c r="K158" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L158" s="7"/>
     </row>
@@ -5570,13 +5610,13 @@
       </c>
       <c r="F159" s="3"/>
       <c r="I159" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K159" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L159" s="7"/>
     </row>
@@ -5595,13 +5635,13 @@
         <v>19</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="K160" t="s">
-        <v>366</v>
+        <v>276</v>
+      </c>
+      <c r="K160" s="27" t="s">
+        <v>442</v>
       </c>
       <c r="L160" s="7"/>
     </row>
@@ -5618,7 +5658,7 @@
       </c>
       <c r="F161" s="3"/>
       <c r="K161" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="L161" s="7"/>
     </row>
@@ -5629,10 +5669,10 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="H162" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K162" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="L162" s="7"/>
     </row>
@@ -5649,13 +5689,13 @@
       </c>
       <c r="F163" s="3"/>
       <c r="I163" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K163" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L163" s="7"/>
     </row>
@@ -5673,14 +5713,14 @@
       <c r="F164" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I164" s="12" t="s">
-        <v>209</v>
+      <c r="I164" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K164" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L164" s="7"/>
     </row>
@@ -5703,7 +5743,7 @@
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
@@ -5713,14 +5753,14 @@
         <v>11</v>
       </c>
       <c r="F166" s="3"/>
-      <c r="I166" s="12" t="s">
-        <v>205</v>
+      <c r="I166" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K166" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="L166" s="7"/>
     </row>
@@ -5728,7 +5768,7 @@
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>7</v>
@@ -5740,13 +5780,13 @@
         <v>19</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K167" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L167" s="7"/>
     </row>
@@ -5754,7 +5794,7 @@
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>7</v>
@@ -5766,7 +5806,7 @@
       <c r="I168" s="18"/>
       <c r="J168" s="18"/>
       <c r="K168" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L168" s="7"/>
     </row>
@@ -5784,13 +5824,13 @@
       </c>
       <c r="F169" s="3"/>
       <c r="I169" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K169" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L169" s="7"/>
     </row>
@@ -5809,13 +5849,13 @@
         <v>19</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J170" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K170" t="s">
         <v>374</v>
-      </c>
-      <c r="K170" t="s">
-        <v>383</v>
       </c>
       <c r="L170" s="7"/>
     </row>
@@ -5832,7 +5872,7 @@
       </c>
       <c r="F171" s="3"/>
       <c r="K171" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="L171" s="7"/>
     </row>
@@ -5843,10 +5883,10 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="H172" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K172" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L172" s="7"/>
     </row>
@@ -5863,13 +5903,13 @@
       </c>
       <c r="F173" s="3"/>
       <c r="I173" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K173" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="L173" s="7"/>
     </row>
@@ -5887,14 +5927,14 @@
       <c r="F174" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I174" s="12" t="s">
-        <v>209</v>
+      <c r="I174" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K174" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L174" s="7"/>
     </row>
@@ -5922,14 +5962,14 @@
         <v>113</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="H176" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
@@ -5946,13 +5986,13 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="I177" s="13" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L177" s="7"/>
     </row>
@@ -5970,13 +6010,13 @@
       </c>
       <c r="F178" s="3"/>
       <c r="I178" s="13" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J178" s="13" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L178" s="7"/>
     </row>
@@ -5994,7 +6034,7 @@
       </c>
       <c r="F179" s="3"/>
       <c r="K179" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L179" s="7"/>
     </row>
@@ -6006,10 +6046,10 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="H180" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L180" s="7"/>
     </row>
@@ -6030,10 +6070,10 @@
         <v>128</v>
       </c>
       <c r="J181" s="13" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L181" s="7"/>
     </row>
@@ -6051,13 +6091,13 @@
       </c>
       <c r="F182" s="3"/>
       <c r="I182" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J182" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L182" s="7"/>
     </row>
@@ -6106,13 +6146,13 @@
         <v>19</v>
       </c>
       <c r="I185" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L185" s="7"/>
     </row>
@@ -6130,7 +6170,7 @@
       </c>
       <c r="F186" s="3"/>
       <c r="K186" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L186" s="7"/>
     </row>
@@ -6146,13 +6186,13 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="I187" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L187" s="7"/>
     </row>
@@ -6168,13 +6208,13 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="I188" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J188" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L188" s="7"/>
     </row>
@@ -6192,13 +6232,13 @@
       </c>
       <c r="F189" s="3"/>
       <c r="I189" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J189" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L189" s="7"/>
     </row>
@@ -6214,13 +6254,13 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="I190" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J190" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="L190" s="7"/>
     </row>
@@ -6238,13 +6278,13 @@
       </c>
       <c r="F191" s="3"/>
       <c r="I191" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J191" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L191" s="7"/>
     </row>
@@ -6262,20 +6302,20 @@
       </c>
       <c r="F192" s="3"/>
       <c r="I192" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J192" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="L192" s="7"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
@@ -6284,7 +6324,7 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="H193" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
@@ -6302,14 +6342,14 @@
         <v>11</v>
       </c>
       <c r="F194" s="3"/>
-      <c r="I194" s="12" t="s">
-        <v>205</v>
+      <c r="I194" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L194" s="7"/>
     </row>
@@ -6329,13 +6369,13 @@
         <v>19</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L195" s="7"/>
     </row>
@@ -6355,7 +6395,7 @@
       <c r="I196" s="18"/>
       <c r="J196" s="18"/>
       <c r="K196" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L196" s="7"/>
     </row>
@@ -6373,13 +6413,13 @@
       </c>
       <c r="F197" s="3"/>
       <c r="I197" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L197" s="7"/>
     </row>
@@ -6398,13 +6438,13 @@
         <v>19</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L198" s="7"/>
     </row>
@@ -6421,7 +6461,7 @@
       </c>
       <c r="F199" s="3"/>
       <c r="K199" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="L199" s="7"/>
     </row>
@@ -6432,10 +6472,10 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="H200" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L200" s="7"/>
     </row>
@@ -6452,13 +6492,13 @@
       </c>
       <c r="F201" s="3"/>
       <c r="I201" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J201" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="L201" s="7"/>
     </row>
@@ -6476,28 +6516,28 @@
       <c r="F202" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I202" s="12" t="s">
-        <v>209</v>
+      <c r="I202" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="J202" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L202" s="7"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="H203" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
@@ -6505,7 +6545,7 @@
     <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3" t="s">
@@ -6515,14 +6555,14 @@
         <v>11</v>
       </c>
       <c r="F204" s="3"/>
-      <c r="I204" s="12" t="s">
-        <v>205</v>
+      <c r="I204" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="J204" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L204" s="7"/>
     </row>
@@ -6530,7 +6570,7 @@
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>7</v>
@@ -6542,13 +6582,13 @@
         <v>19</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J205" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L205" s="7"/>
     </row>
@@ -6556,7 +6596,7 @@
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>7</v>
@@ -6568,7 +6608,7 @@
       <c r="I206" s="18"/>
       <c r="J206" s="18"/>
       <c r="K206" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L206" s="7"/>
     </row>
@@ -6586,13 +6626,13 @@
       </c>
       <c r="F207" s="3"/>
       <c r="I207" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J207" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L207" s="7"/>
     </row>
@@ -6611,13 +6651,13 @@
         <v>19</v>
       </c>
       <c r="I208" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J208" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L208" s="7"/>
     </row>
@@ -6634,7 +6674,7 @@
       </c>
       <c r="F209" s="3"/>
       <c r="K209" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="L209" s="7"/>
     </row>
@@ -6645,10 +6685,10 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="H210" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="L210" s="7"/>
     </row>
@@ -6665,13 +6705,13 @@
       </c>
       <c r="F211" s="3"/>
       <c r="I211" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L211" s="7"/>
     </row>
@@ -6689,21 +6729,21 @@
       <c r="F212" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I212" s="12" t="s">
-        <v>209</v>
+      <c r="I212" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="J212" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L212" s="7"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -6712,7 +6752,7 @@
       </c>
       <c r="F213" s="3"/>
       <c r="H213" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K213" s="7"/>
       <c r="L213" s="7"/>
@@ -6749,13 +6789,13 @@
         <v>19</v>
       </c>
       <c r="I215" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J215" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L215" s="7"/>
     </row>
@@ -6774,14 +6814,14 @@
       <c r="F216" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I216" s="17" t="s">
-        <v>169</v>
+      <c r="I216" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="J216" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L216" s="7"/>
     </row>
@@ -6801,7 +6841,7 @@
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
       <c r="K217" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L217" s="7"/>
     </row>
@@ -6819,13 +6859,13 @@
       </c>
       <c r="F218" s="6"/>
       <c r="I218" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J218" s="13" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L218" s="7"/>
     </row>
@@ -6843,13 +6883,13 @@
       </c>
       <c r="F219" s="6"/>
       <c r="I219" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J219" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L219" s="7"/>
     </row>
@@ -6870,10 +6910,10 @@
         <v>50</v>
       </c>
       <c r="J220" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L220" s="7"/>
     </row>
@@ -6891,13 +6931,13 @@
       </c>
       <c r="F221" s="6"/>
       <c r="I221" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J221" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L221" s="7"/>
     </row>
@@ -6915,13 +6955,13 @@
       </c>
       <c r="F222" s="6"/>
       <c r="I222" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J222" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="L222" s="7"/>
     </row>
@@ -6939,13 +6979,13 @@
       </c>
       <c r="F223" s="6"/>
       <c r="I223" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J223" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L223" s="7"/>
     </row>
@@ -6963,13 +7003,13 @@
       </c>
       <c r="F224" s="6"/>
       <c r="I224" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J224" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="L224" s="7"/>
     </row>
@@ -6985,7 +7025,7 @@
       </c>
       <c r="F225" s="3"/>
       <c r="H225" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K225" s="7"/>
       <c r="L225" s="7"/>
@@ -7004,13 +7044,13 @@
       </c>
       <c r="F226" s="3"/>
       <c r="I226" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J226" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L226" s="7"/>
     </row>
@@ -7040,7 +7080,7 @@
       </c>
       <c r="F228" s="3"/>
       <c r="H228" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K228" s="7"/>
       <c r="L228" s="7"/>
@@ -7060,14 +7100,14 @@
       <c r="F229" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I229" s="12" t="s">
-        <v>178</v>
+      <c r="I229" s="24" t="s">
+        <v>439</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="L229" s="7"/>
     </row>
@@ -7085,13 +7125,13 @@
       </c>
       <c r="F230" s="3"/>
       <c r="I230" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J230" s="13" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="L230" s="7"/>
     </row>
@@ -7108,14 +7148,14 @@
         <v>8</v>
       </c>
       <c r="F231" s="3"/>
-      <c r="I231" s="16" t="s">
-        <v>249</v>
+      <c r="I231" s="22" t="s">
+        <v>441</v>
       </c>
       <c r="J231" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="L231" s="7"/>
     </row>
@@ -7133,13 +7173,13 @@
       </c>
       <c r="F232" s="3"/>
       <c r="I232" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J232" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="L232" s="7"/>
     </row>
@@ -7156,14 +7196,14 @@
         <v>8</v>
       </c>
       <c r="F233" s="3"/>
-      <c r="I233" s="13" t="s">
-        <v>251</v>
+      <c r="I233" s="26" t="s">
+        <v>440</v>
       </c>
       <c r="J233" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L233" s="7"/>
     </row>
@@ -7181,13 +7221,13 @@
       </c>
       <c r="F234" s="3"/>
       <c r="I234" s="13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J234" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L234" s="7"/>
     </row>
@@ -7205,13 +7245,13 @@
       </c>
       <c r="F235" s="3"/>
       <c r="I235" s="13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J235" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="L235" s="7"/>
     </row>
@@ -7229,13 +7269,13 @@
       </c>
       <c r="F236" s="3"/>
       <c r="I236" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J236" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L236" s="7"/>
     </row>
@@ -7255,14 +7295,14 @@
       </c>
       <c r="F237" s="3"/>
       <c r="H237" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I237" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J237" s="12"/>
       <c r="K237" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L237" s="7"/>
     </row>
@@ -7289,7 +7329,7 @@
     </row>
     <row r="241" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G241" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H241" s="7"/>
       <c r="I241" s="14"/>

--- a/mapping/mml_referral_mapping.xlsx
+++ b/mapping/mml_referral_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="441">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -47,10 +47,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>MML</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>node</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -238,10 +234,6 @@
     <t>mmlRe:ReferralModule</t>
   </si>
   <si>
-    <t>mmlRe:ReferralModule</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPi:PatientModule</t>
   </si>
   <si>
@@ -254,58 +246,25 @@
     <t>mmlRe:referFrom</t>
   </si>
   <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>1.4.</t>
-  </si>
-  <si>
     <t>mmlRe:title</t>
   </si>
   <si>
-    <t>1.5.</t>
-  </si>
-  <si>
     <t>mmlRe:greeting</t>
   </si>
   <si>
-    <t>1.6.</t>
-  </si>
-  <si>
     <t>mmlRe:chiefComplaints</t>
   </si>
   <si>
-    <t>1.7.</t>
-  </si>
-  <si>
     <t>mmlRe:clinicalDiagnosis</t>
   </si>
   <si>
-    <t>1.8.</t>
-  </si>
-  <si>
     <t>mmlRe:pastHistory</t>
   </si>
   <si>
-    <t>1.8.1.</t>
-  </si>
-  <si>
-    <t>1.9.</t>
-  </si>
-  <si>
     <t>mmlRe:familyHistory</t>
   </si>
   <si>
-    <t>1.9.1.</t>
-  </si>
-  <si>
-    <t>1.10.</t>
-  </si>
-  <si>
     <t>mmlRe:presentIllness</t>
-  </si>
-  <si>
-    <t>1.10.1.</t>
   </si>
   <si>
     <t>1.11.</t>
@@ -525,10 +484,6 @@
     <t>mmlPi:subtype</t>
   </si>
   <si>
-    <t>nationality/seconday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPi:race</t>
   </si>
   <si>
@@ -606,26 +561,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Telecom type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>structured_telecoms/Area code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*structured_telecoms/City code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>structured_telecoms/Number</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>structured_telecoms/extention</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Unstructured telecoms</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -676,10 +619,6 @@
     <t>date/dateTime</t>
   </si>
   <si>
-    <t>Date time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>openEHR-EHR-EVALUATION.exposure.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -764,23 +703,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Telecom type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>structured_telecoms/Area code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*structured_telecoms/City code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>structured_telecoms/Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extention</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1679,6 +1606,77 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MML</t>
+  </si>
+  <si>
+    <t>nationality/secondary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured_telecoms/City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date Time attested</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.6.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.7.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.8.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.8.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.9.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.9.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.10.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.10.1.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2184,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E216" workbookViewId="0">
-      <selection activeCell="K242" sqref="K242"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2201,22 +2199,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2"/>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -2225,7 +2223,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -2245,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2262,14 +2260,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -2279,7 +2277,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2294,7 +2292,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2309,7 +2307,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
@@ -2320,33 +2318,33 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="19" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="19" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -2354,13 +2352,13 @@
     <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2373,20 +2371,20 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -2394,20 +2392,20 @@
     <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="22" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2415,12 +2413,12 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -2433,21 +2431,21 @@
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="20" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="7"/>
@@ -2456,7 +2454,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
@@ -2467,7 +2465,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="19" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2475,20 +2473,20 @@
     <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="19" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2496,13 +2494,13 @@
     <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -2515,20 +2513,20 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="19" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -2536,20 +2534,20 @@
     <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="19" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2557,7 +2555,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2572,17 +2570,17 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="19"/>
       <c r="K21" s="7"/>
@@ -2592,21 +2590,21 @@
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="20" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="7"/>
@@ -2616,13 +2614,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
@@ -2634,7 +2632,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
@@ -2645,7 +2643,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="20" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="7"/>
@@ -2654,7 +2652,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
@@ -2665,7 +2663,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="19" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2673,7 +2671,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
@@ -2686,7 +2684,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2694,7 +2692,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
@@ -2705,7 +2703,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="19" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2713,7 +2711,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
@@ -2726,7 +2724,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="19" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2734,7 +2732,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
@@ -2747,7 +2745,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="19" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="7"/>
@@ -2756,20 +2754,20 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2777,7 +2775,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
@@ -2785,12 +2783,12 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="19" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2798,7 +2796,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="8" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
@@ -2811,7 +2809,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="19" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2820,19 +2818,19 @@
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="19" t="s">
-        <v>154</v>
+      <c r="I33" s="23" t="s">
+        <v>424</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2840,7 +2838,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
@@ -2852,10 +2850,10 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2864,19 +2862,19 @@
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="19" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2885,19 +2883,19 @@
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="19" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2905,7 +2903,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="8" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
@@ -2915,14 +2913,14 @@
         <v>8</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="7"/>
@@ -2931,7 +2929,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2948,17 +2946,17 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I39" s="19"/>
       <c r="K39" s="7"/>
@@ -2968,21 +2966,21 @@
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="21" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="7"/>
@@ -2992,21 +2990,21 @@
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="23" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="7"/>
@@ -3016,13 +3014,13 @@
       <c r="A42" s="3"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="9"/>
@@ -3034,7 +3032,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
@@ -3047,7 +3045,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="19" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3055,7 +3053,7 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
@@ -3068,7 +3066,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="19" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -3076,7 +3074,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
@@ -3089,7 +3087,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -3097,7 +3095,7 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
@@ -3110,7 +3108,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -3118,7 +3116,7 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
@@ -3131,7 +3129,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="19" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3139,7 +3137,7 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10" t="s">
@@ -3152,7 +3150,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="19" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -3160,7 +3158,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10" t="s">
@@ -3173,7 +3171,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="19" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -3181,7 +3179,7 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3191,7 +3189,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I50" s="19"/>
       <c r="K50" s="7"/>
@@ -3200,20 +3198,20 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="19" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -3221,7 +3219,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3238,17 +3236,17 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I53" s="19"/>
       <c r="K53" s="7"/>
@@ -3258,21 +3256,21 @@
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="20" t="s">
-        <v>176</v>
+      <c r="I54" s="23" t="s">
+        <v>425</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="7"/>
@@ -3281,7 +3279,7 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
@@ -3294,7 +3292,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -3302,7 +3300,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
@@ -3314,8 +3312,8 @@
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="19" t="s">
-        <v>178</v>
+      <c r="I56" s="23" t="s">
+        <v>426</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="7"/>
@@ -3324,7 +3322,7 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -3337,7 +3335,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="19" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -3345,7 +3343,7 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
@@ -3357,8 +3355,8 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="19" t="s">
-        <v>180</v>
+      <c r="I58" s="23" t="s">
+        <v>427</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3366,7 +3364,7 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
@@ -3379,7 +3377,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -3387,7 +3385,7 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
@@ -3400,7 +3398,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="19" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -3408,7 +3406,7 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
@@ -3421,7 +3419,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="19" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="7"/>
@@ -3430,7 +3428,7 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="8" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
@@ -3442,10 +3440,10 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="7"/>
@@ -3454,7 +3452,7 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="8" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
@@ -3467,7 +3465,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="19" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3475,11 +3473,11 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="11" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>8</v>
@@ -3487,10 +3485,10 @@
       <c r="F64" s="11"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="7"/>
@@ -3500,19 +3498,19 @@
       <c r="A65" s="3"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="14" t="s">
-        <v>195</v>
+      <c r="I65" s="25" t="s">
+        <v>428</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="7"/>
@@ -3520,10 +3518,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
@@ -3534,16 +3532,16 @@
       </c>
       <c r="F66" s="3"/>
       <c r="H66" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="L66" s="7"/>
     </row>
@@ -3555,25 +3553,25 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3587,17 +3585,17 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="H69" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -3605,7 +3603,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
@@ -3614,13 +3612,13 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="I70" s="13" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="L70" s="7"/>
     </row>
@@ -3628,23 +3626,23 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F71" s="3"/>
       <c r="I71" s="13" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="L71" s="7"/>
     </row>
@@ -3652,17 +3650,17 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="L72" s="7"/>
     </row>
@@ -3674,10 +3672,10 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="H73" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="L73" s="7"/>
     </row>
@@ -3685,23 +3683,23 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F74" s="3"/>
       <c r="I74" s="13" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="L74" s="7"/>
     </row>
@@ -3709,30 +3707,30 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F75" s="3"/>
       <c r="I75" s="13" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3744,16 +3742,16 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" s="3"/>
       <c r="H77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -3762,25 +3760,25 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I78" s="15" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="L78" s="7"/>
     </row>
@@ -3788,24 +3786,24 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" s="3"/>
       <c r="K79" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
@@ -3814,20 +3812,20 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="I80" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
@@ -3836,20 +3834,20 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="I81" s="13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
@@ -3860,20 +3858,20 @@
       </c>
       <c r="F82" s="3"/>
       <c r="I82" s="13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
@@ -3882,20 +3880,20 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="I83" s="13" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
@@ -3906,20 +3904,20 @@
       </c>
       <c r="F84" s="3"/>
       <c r="I84" s="13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
@@ -3930,29 +3928,29 @@
       </c>
       <c r="F85" s="3"/>
       <c r="I85" s="16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="H86" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -3960,24 +3958,24 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87" s="3"/>
       <c r="I87" s="24" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="L87" s="7"/>
     </row>
@@ -3985,25 +3983,25 @@
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I88" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="L88" s="7"/>
     </row>
@@ -4011,26 +4009,26 @@
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F89" s="3"/>
       <c r="I89" s="18"/>
       <c r="J89" s="18"/>
       <c r="K89" s="7" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
@@ -4041,55 +4039,55 @@
       </c>
       <c r="F90" s="3"/>
       <c r="I90" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="C91" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I91" s="12" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F92" s="3"/>
       <c r="K92" s="7" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="L92" s="7"/>
     </row>
@@ -4100,72 +4098,72 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94" s="3"/>
       <c r="I94" s="12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="C95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I95" s="24" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="H96" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -4173,24 +4171,24 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F97" s="3"/>
       <c r="I97" s="24" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="L97" s="7"/>
     </row>
@@ -4198,25 +4196,25 @@
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I98" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="L98" s="7"/>
     </row>
@@ -4224,25 +4222,25 @@
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" s="3"/>
       <c r="I99" s="18"/>
       <c r="K99" s="12" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="L99" s="7"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3" t="s">
@@ -4253,55 +4251,55 @@
       </c>
       <c r="F100" s="3"/>
       <c r="I100" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I101" s="12" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="C102" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F102" s="3"/>
       <c r="K102" s="12" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="L102" s="7"/>
     </row>
@@ -4312,65 +4310,65 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="H103" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="C104" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F104" s="3"/>
       <c r="I104" s="12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="C105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I105" s="24" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4379,7 +4377,7 @@
       </c>
       <c r="F106" s="3"/>
       <c r="H106" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -4387,12 +4385,12 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" s="3"/>
       <c r="I107" s="17"/>
@@ -4404,25 +4402,25 @@
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F108" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="I108" s="17" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="L108" s="7"/>
     </row>
@@ -4430,25 +4428,25 @@
       <c r="A109" s="3"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="I109" s="25" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="L109" s="7"/>
     </row>
@@ -4456,26 +4454,26 @@
       <c r="A110" s="3"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F110" s="6"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6" t="s">
@@ -4486,20 +4484,20 @@
       </c>
       <c r="F111" s="6"/>
       <c r="I111" s="13" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="L111" s="7"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
@@ -4510,20 +4508,20 @@
       </c>
       <c r="F112" s="6"/>
       <c r="I112" s="13" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="L112" s="7"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
@@ -4534,20 +4532,20 @@
       </c>
       <c r="F113" s="6"/>
       <c r="I113" s="13" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
@@ -4558,20 +4556,20 @@
       </c>
       <c r="F114" s="6"/>
       <c r="I114" s="13" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="L114" s="7"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
@@ -4582,20 +4580,20 @@
       </c>
       <c r="F115" s="6"/>
       <c r="I115" s="13" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="L115" s="7"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6" t="s">
@@ -4606,20 +4604,20 @@
       </c>
       <c r="F116" s="6"/>
       <c r="I116" s="13" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="J116" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="L116" s="7"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
@@ -4630,20 +4628,20 @@
       </c>
       <c r="F117" s="6"/>
       <c r="I117" s="13" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="J117" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="L117" s="7"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4652,7 +4650,7 @@
       </c>
       <c r="F118" s="3"/>
       <c r="H118" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
@@ -4660,31 +4658,31 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F119" s="3"/>
       <c r="I119" s="13" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J119" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="L119" s="7"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4698,16 +4696,16 @@
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F121" s="3"/>
       <c r="H121" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
@@ -4716,32 +4714,32 @@
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>217</v>
+      <c r="I122" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="L122" s="7"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
@@ -4752,20 +4750,20 @@
       </c>
       <c r="F123" s="3"/>
       <c r="I123" s="13" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="L123" s="7"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
@@ -4775,21 +4773,21 @@
         <v>8</v>
       </c>
       <c r="F124" s="3"/>
-      <c r="I124" s="16" t="s">
-        <v>219</v>
+      <c r="I124" s="23" t="s">
+        <v>426</v>
       </c>
       <c r="J124" s="16" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="L124" s="7"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3" t="s">
@@ -4800,20 +4798,20 @@
       </c>
       <c r="F125" s="3"/>
       <c r="I125" s="13" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="J125" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="L125" s="7"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3" t="s">
@@ -4823,21 +4821,21 @@
         <v>8</v>
       </c>
       <c r="F126" s="3"/>
-      <c r="I126" s="13" t="s">
-        <v>221</v>
+      <c r="I126" s="25" t="s">
+        <v>429</v>
       </c>
       <c r="J126" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="L126" s="7"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3" t="s">
@@ -4848,20 +4846,20 @@
       </c>
       <c r="F127" s="3"/>
       <c r="I127" s="13" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="J127" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="L127" s="7"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3" t="s">
@@ -4872,20 +4870,20 @@
       </c>
       <c r="F128" s="3"/>
       <c r="I128" s="13" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J128" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="L128" s="7"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
@@ -4896,22 +4894,22 @@
       </c>
       <c r="F129" s="3"/>
       <c r="I129" s="16" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="J129" s="16" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="L129" s="7"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
@@ -4920,25 +4918,25 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="H130" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="L130" s="7"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3" t="s">
@@ -4950,22 +4948,22 @@
       <c r="F131" s="3"/>
       <c r="H131" s="7"/>
       <c r="I131" s="12" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="L131" s="7"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3" t="s">
@@ -4974,25 +4972,25 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="H132" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="L132" s="7"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
-        <v>83</v>
+        <v>434</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
@@ -5003,25 +5001,25 @@
       </c>
       <c r="F133" s="3"/>
       <c r="H133" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="L133" s="7"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
@@ -5032,34 +5030,34 @@
       </c>
       <c r="F134" s="3"/>
       <c r="H134" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="L134" s="7"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>87</v>
+        <v>436</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F135" s="3"/>
       <c r="H135" s="7" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="L135" s="7"/>
     </row>
@@ -5067,31 +5065,31 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="H136" s="7"/>
       <c r="I136" s="12" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="L136" s="7"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
-        <v>88</v>
+        <v>437</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3" t="s">
@@ -5102,34 +5100,34 @@
       </c>
       <c r="F137" s="3"/>
       <c r="H137" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="L137" s="7"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>90</v>
+        <v>438</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F138" s="3"/>
       <c r="H138" s="7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
@@ -5140,29 +5138,29 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="H139" s="7"/>
       <c r="I139" s="12" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="L139" s="7"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
-        <v>91</v>
+        <v>439</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3" t="s">
@@ -5171,34 +5169,34 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="H140" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="L140" s="7"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>93</v>
+        <v>440</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F141" s="3"/>
       <c r="H141" s="7" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
@@ -5207,29 +5205,29 @@
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="H142" s="7"/>
       <c r="I142" s="12" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="L142" s="7"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
@@ -5240,34 +5238,34 @@
       </c>
       <c r="F143" s="3"/>
       <c r="H143" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="L143" s="7"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F144" s="3"/>
       <c r="H144" s="7" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
@@ -5278,30 +5276,30 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="I145" s="12" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="L145" s="7"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5310,25 +5308,25 @@
       </c>
       <c r="F146" s="3"/>
       <c r="H146" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="L146" s="7"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
@@ -5339,34 +5337,34 @@
       </c>
       <c r="F147" s="3"/>
       <c r="H147" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="L147" s="7"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F148" s="3"/>
       <c r="H148" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
@@ -5377,28 +5375,28 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="I149" s="12" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="L149" s="7"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
@@ -5407,25 +5405,25 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="H150" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="L150" s="7"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3" t="s">
@@ -5436,34 +5434,34 @@
       </c>
       <c r="F151" s="3"/>
       <c r="H151" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="L151" s="7"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F152" s="3"/>
       <c r="H152" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
@@ -5474,28 +5472,28 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="I153" s="12" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="K153" s="27" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="L153" s="7"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5504,49 +5502,49 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
       <c r="K154" s="7" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="L154" s="7"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="H155" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L155" s="7"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F156" s="3"/>
       <c r="I156" s="24" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K156" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="L156" s="7"/>
     </row>
@@ -5554,25 +5552,25 @@
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I157" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K157" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="L157" s="7"/>
     </row>
@@ -5580,26 +5578,26 @@
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F158" s="3"/>
       <c r="I158" s="18"/>
       <c r="J158" s="18"/>
       <c r="K158" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="L158" s="7"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
@@ -5610,55 +5608,55 @@
       </c>
       <c r="F159" s="3"/>
       <c r="I159" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K159" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="L159" s="7"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="C160" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I160" s="12" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K160" s="27" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="L160" s="7"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="C161" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F161" s="3"/>
       <c r="K161" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="L161" s="7"/>
     </row>
@@ -5669,98 +5667,98 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="H162" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K162" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="L162" s="7"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
       <c r="C163" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F163" s="3"/>
       <c r="I163" s="12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="K163" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="L163" s="7"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
       <c r="C164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I164" s="24" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K164" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="L164" s="7"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="H165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L165" s="7"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F166" s="3"/>
       <c r="I166" s="24" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K166" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="L166" s="7"/>
     </row>
@@ -5768,25 +5766,25 @@
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E167" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I167" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K167" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="L167" s="7"/>
     </row>
@@ -5794,26 +5792,26 @@
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F168" s="3"/>
       <c r="I168" s="18"/>
       <c r="J168" s="18"/>
       <c r="K168" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="L168" s="7"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3" t="s">
@@ -5824,55 +5822,55 @@
       </c>
       <c r="F169" s="3"/>
       <c r="I169" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="K169" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="L169" s="7"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
       <c r="C170" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F170" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I170" s="12" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="K170" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="L170" s="7"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="3"/>
       <c r="C171" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F171" s="3"/>
       <c r="K171" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="L171" s="7"/>
     </row>
@@ -5883,67 +5881,67 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="H172" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K172" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="L172" s="7"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="3"/>
       <c r="C173" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F173" s="3"/>
       <c r="I173" s="12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="K173" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="L173" s="7"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="3"/>
       <c r="C174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I174" s="24" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K174" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="L174" s="7"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -5959,17 +5957,17 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="H176" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
@@ -5977,7 +5975,7 @@
     <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
@@ -5986,13 +5984,13 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="I177" s="13" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="L177" s="7"/>
     </row>
@@ -6000,23 +5998,23 @@
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F178" s="3"/>
       <c r="I178" s="13" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="J178" s="13" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="L178" s="7"/>
     </row>
@@ -6024,17 +6022,17 @@
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F179" s="3"/>
       <c r="K179" s="7" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="L179" s="7"/>
     </row>
@@ -6046,10 +6044,10 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="H180" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="L180" s="7"/>
     </row>
@@ -6057,23 +6055,23 @@
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F181" s="3"/>
       <c r="I181" s="13" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J181" s="13" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="L181" s="7"/>
     </row>
@@ -6081,30 +6079,30 @@
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F182" s="3"/>
       <c r="I182" s="13" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J182" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L182" s="7"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6116,16 +6114,16 @@
     <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F184" s="3"/>
       <c r="H184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
@@ -6134,25 +6132,25 @@
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I185" s="15" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="L185" s="7"/>
     </row>
@@ -6160,24 +6158,24 @@
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F186" s="3"/>
       <c r="K186" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="L186" s="7"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3" t="s">
@@ -6186,20 +6184,20 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="I187" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="L187" s="7"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3" t="s">
@@ -6208,20 +6206,20 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="I188" s="13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J188" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="L188" s="7"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
@@ -6232,20 +6230,20 @@
       </c>
       <c r="F189" s="3"/>
       <c r="I189" s="13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J189" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="L189" s="7"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3" t="s">
@@ -6254,20 +6252,20 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="I190" s="13" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J190" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="L190" s="7"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
@@ -6278,20 +6276,20 @@
       </c>
       <c r="F191" s="3"/>
       <c r="I191" s="13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J191" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="L191" s="7"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
@@ -6302,29 +6300,29 @@
       </c>
       <c r="F192" s="3"/>
       <c r="I192" s="16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J192" s="16" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="L192" s="7"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="H193" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
@@ -6332,24 +6330,24 @@
     <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F194" s="3"/>
       <c r="I194" s="24" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="L194" s="7"/>
     </row>
@@ -6357,25 +6355,25 @@
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F195" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I195" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="L195" s="7"/>
     </row>
@@ -6383,26 +6381,26 @@
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F196" s="3"/>
       <c r="I196" s="18"/>
       <c r="J196" s="18"/>
       <c r="K196" s="7" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="L196" s="7"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3" t="s">
@@ -6413,55 +6411,55 @@
       </c>
       <c r="F197" s="3"/>
       <c r="I197" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="L197" s="7"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" s="3"/>
       <c r="C198" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E198" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F198" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I198" s="12" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="L198" s="7"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A199" s="3"/>
       <c r="C199" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F199" s="3"/>
       <c r="K199" s="7" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="L199" s="7"/>
     </row>
@@ -6472,72 +6470,72 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="H200" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L200" s="7"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" s="3"/>
       <c r="C201" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F201" s="3"/>
       <c r="I201" s="12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J201" s="12" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="L201" s="7"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A202" s="3"/>
       <c r="C202" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I202" s="24" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="J202" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="L202" s="7"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="H203" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
@@ -6545,24 +6543,24 @@
     <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F204" s="3"/>
       <c r="I204" s="24" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J204" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="L204" s="7"/>
     </row>
@@ -6570,25 +6568,25 @@
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E205" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F205" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I205" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J205" s="12" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="L205" s="7"/>
     </row>
@@ -6596,26 +6594,26 @@
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F206" s="3"/>
       <c r="I206" s="18"/>
       <c r="J206" s="18"/>
       <c r="K206" s="7" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="L206" s="7"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
@@ -6626,55 +6624,55 @@
       </c>
       <c r="F207" s="3"/>
       <c r="I207" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J207" s="12" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="L207" s="7"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A208" s="3"/>
       <c r="C208" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F208" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I208" s="12" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J208" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="L208" s="7"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" s="3"/>
       <c r="C209" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F209" s="3"/>
       <c r="K209" s="7" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="L209" s="7"/>
     </row>
@@ -6685,65 +6683,65 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="H210" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="L210" s="7"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" s="3"/>
       <c r="C211" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F211" s="3"/>
       <c r="I211" s="12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="L211" s="7"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="3"/>
       <c r="C212" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D212" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I212" s="24" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="J212" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="L212" s="7"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -6752,7 +6750,7 @@
       </c>
       <c r="F213" s="3"/>
       <c r="H213" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K213" s="7"/>
       <c r="L213" s="7"/>
@@ -6760,12 +6758,12 @@
     <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F214" s="3"/>
       <c r="I214" s="17"/>
@@ -6777,25 +6775,25 @@
       <c r="A215" s="3"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E215" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F215" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="I215" s="17" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J215" s="17" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="L215" s="7"/>
     </row>
@@ -6803,25 +6801,25 @@
       <c r="A216" s="3"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D216" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="I216" s="25" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J216" s="17" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="L216" s="7"/>
     </row>
@@ -6829,26 +6827,26 @@
       <c r="A217" s="3"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F217" s="6"/>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
       <c r="K217" s="7" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="L217" s="7"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" s="3"/>
       <c r="B218" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="6" t="s">
@@ -6859,20 +6857,20 @@
       </c>
       <c r="F218" s="6"/>
       <c r="I218" s="13" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J218" s="13" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="L218" s="7"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" s="3"/>
       <c r="B219" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="6" t="s">
@@ -6883,20 +6881,20 @@
       </c>
       <c r="F219" s="6"/>
       <c r="I219" s="13" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="J219" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="L219" s="7"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" s="3"/>
       <c r="B220" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6" t="s">
@@ -6907,20 +6905,20 @@
       </c>
       <c r="F220" s="6"/>
       <c r="I220" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J220" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="L220" s="7"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" s="3"/>
       <c r="B221" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="6" t="s">
@@ -6931,20 +6929,20 @@
       </c>
       <c r="F221" s="6"/>
       <c r="I221" s="13" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="J221" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="L221" s="7"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" s="3"/>
       <c r="B222" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="6" t="s">
@@ -6955,20 +6953,20 @@
       </c>
       <c r="F222" s="6"/>
       <c r="I222" s="13" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J222" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="L222" s="7"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A223" s="3"/>
       <c r="B223" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6" t="s">
@@ -6979,20 +6977,20 @@
       </c>
       <c r="F223" s="6"/>
       <c r="I223" s="13" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="J223" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="L223" s="7"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A224" s="3"/>
       <c r="B224" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="6" t="s">
@@ -7003,20 +7001,20 @@
       </c>
       <c r="F224" s="6"/>
       <c r="I224" s="13" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J224" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="L224" s="7"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -7025,7 +7023,7 @@
       </c>
       <c r="F225" s="3"/>
       <c r="H225" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="K225" s="7"/>
       <c r="L225" s="7"/>
@@ -7033,31 +7031,31 @@
     <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F226" s="3"/>
       <c r="I226" s="13" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J226" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="L226" s="7"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -7071,16 +7069,16 @@
     <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F228" s="3"/>
       <c r="H228" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="K228" s="7"/>
       <c r="L228" s="7"/>
@@ -7089,32 +7087,32 @@
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D229" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="I229" s="24" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="L229" s="7"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3" t="s">
@@ -7125,20 +7123,20 @@
       </c>
       <c r="F230" s="3"/>
       <c r="I230" s="13" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="J230" s="13" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="L230" s="7"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3" t="s">
@@ -7149,20 +7147,20 @@
       </c>
       <c r="F231" s="3"/>
       <c r="I231" s="22" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="J231" s="16" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="L231" s="7"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3" t="s">
@@ -7173,20 +7171,20 @@
       </c>
       <c r="F232" s="3"/>
       <c r="I232" s="13" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="J232" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="L232" s="7"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3" t="s">
@@ -7197,20 +7195,20 @@
       </c>
       <c r="F233" s="3"/>
       <c r="I233" s="26" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J233" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="L233" s="7"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3" t="s">
@@ -7221,20 +7219,20 @@
       </c>
       <c r="F234" s="3"/>
       <c r="I234" s="13" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="J234" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="L234" s="7"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235" s="3"/>
       <c r="B235" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -7245,20 +7243,20 @@
       </c>
       <c r="F235" s="3"/>
       <c r="I235" s="13" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="J235" s="13" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="L235" s="7"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3" t="s">
@@ -7269,22 +7267,22 @@
       </c>
       <c r="F236" s="3"/>
       <c r="I236" s="16" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J236" s="16" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="L236" s="7"/>
     </row>
     <row r="237" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3" t="s">
@@ -7295,14 +7293,14 @@
       </c>
       <c r="F237" s="3"/>
       <c r="H237" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="I237" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="J237" s="12"/>
       <c r="K237" s="7" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="L237" s="7"/>
     </row>
@@ -7329,7 +7327,7 @@
     </row>
     <row r="241" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G241" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="H241" s="7"/>
       <c r="I241" s="14"/>

--- a/mapping/mml_referral_mapping.xlsx
+++ b/mapping/mml_referral_mapping.xlsx
@@ -986,26 +986,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.15]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_IDENTIFIER</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1014,10 +994,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_CODED_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1058,10 +1034,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1082,42 +1054,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1534,10 +1470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match/defining_code/terminology_id/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1570,10 +1502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Departiment']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>master id/checkDigitSchema</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1678,6 +1606,61 @@
   <si>
     <t>1.10.1.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/terminology_id/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/match</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]/magnitude</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]/value</t>
   </si>
 </sst>
 </file>
@@ -2182,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2199,7 +2182,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2405,7 +2388,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="22" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2830,7 +2813,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="23" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -3004,7 +2987,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="23" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="7"/>
@@ -3270,7 +3253,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="23" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="7"/>
@@ -3313,7 +3296,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="23" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="7"/>
@@ -3356,7 +3339,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="23" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3510,7 +3493,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="25" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="7"/>
@@ -3585,7 +3568,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>180</v>
@@ -3660,7 +3643,7 @@
       </c>
       <c r="F72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="L72" s="7"/>
     </row>
@@ -3675,7 +3658,7 @@
         <v>262</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="L73" s="7"/>
     </row>
@@ -3699,7 +3682,7 @@
         <v>243</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L74" s="7"/>
     </row>
@@ -3723,7 +3706,7 @@
         <v>245</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L75" s="7"/>
     </row>
@@ -3969,7 +3952,7 @@
       </c>
       <c r="F87" s="3"/>
       <c r="I87" s="24" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J87" s="12" t="s">
         <v>255</v>
@@ -4087,7 +4070,7 @@
       </c>
       <c r="F92" s="3"/>
       <c r="K92" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="L92" s="7"/>
     </row>
@@ -4101,7 +4084,7 @@
         <v>262</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="L93" s="7"/>
     </row>
@@ -4143,7 +4126,7 @@
         <v>24</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="J95" s="12" t="s">
         <v>255</v>
@@ -4182,13 +4165,13 @@
       </c>
       <c r="F97" s="3"/>
       <c r="I97" s="24" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J97" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>267</v>
+        <v>432</v>
       </c>
       <c r="L97" s="7"/>
     </row>
@@ -4214,7 +4197,7 @@
         <v>257</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>268</v>
+        <v>433</v>
       </c>
       <c r="L98" s="7"/>
     </row>
@@ -4233,7 +4216,7 @@
       <c r="F99" s="3"/>
       <c r="I99" s="18"/>
       <c r="K99" s="12" t="s">
-        <v>269</v>
+        <v>434</v>
       </c>
       <c r="L99" s="7"/>
     </row>
@@ -4254,10 +4237,10 @@
         <v>184</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="L100" s="7"/>
     </row>
@@ -4282,7 +4265,7 @@
         <v>255</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>271</v>
+        <v>436</v>
       </c>
       <c r="L101" s="7"/>
     </row>
@@ -4299,7 +4282,7 @@
       </c>
       <c r="F102" s="3"/>
       <c r="K102" s="12" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="L102" s="7"/>
     </row>
@@ -4313,7 +4296,7 @@
         <v>262</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="L103" s="7"/>
     </row>
@@ -4333,10 +4316,10 @@
         <v>186</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>274</v>
+        <v>439</v>
       </c>
       <c r="L104" s="7"/>
     </row>
@@ -4355,13 +4338,13 @@
         <v>24</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="J105" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>285</v>
+        <v>440</v>
       </c>
       <c r="L105" s="7"/>
     </row>
@@ -4417,10 +4400,10 @@
         <v>153</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L108" s="7"/>
     </row>
@@ -4440,13 +4423,13 @@
         <v>44</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L109" s="7"/>
     </row>
@@ -4466,7 +4449,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L110" s="7"/>
     </row>
@@ -4487,10 +4470,10 @@
         <v>154</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L111" s="7"/>
     </row>
@@ -4514,7 +4497,7 @@
         <v>255</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L112" s="7"/>
     </row>
@@ -4538,7 +4521,7 @@
         <v>255</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L113" s="7"/>
     </row>
@@ -4562,7 +4545,7 @@
         <v>255</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L114" s="7"/>
     </row>
@@ -4586,7 +4569,7 @@
         <v>255</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L115" s="7"/>
     </row>
@@ -4610,7 +4593,7 @@
         <v>255</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L116" s="7"/>
     </row>
@@ -4634,7 +4617,7 @@
         <v>255</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L117" s="7"/>
     </row>
@@ -4675,7 +4658,7 @@
         <v>255</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>291</v>
+        <v>423</v>
       </c>
       <c r="L119" s="7"/>
     </row>
@@ -4726,13 +4709,13 @@
         <v>59</v>
       </c>
       <c r="I122" s="25" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>299</v>
+        <v>424</v>
       </c>
       <c r="L122" s="7"/>
     </row>
@@ -4753,10 +4736,10 @@
         <v>199</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="L123" s="7"/>
     </row>
@@ -4774,13 +4757,13 @@
       </c>
       <c r="F124" s="3"/>
       <c r="I124" s="23" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="J124" s="16" t="s">
         <v>255</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>294</v>
+        <v>426</v>
       </c>
       <c r="L124" s="7"/>
     </row>
@@ -4804,7 +4787,7 @@
         <v>255</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>295</v>
+        <v>427</v>
       </c>
       <c r="L125" s="7"/>
     </row>
@@ -4822,13 +4805,13 @@
       </c>
       <c r="F126" s="3"/>
       <c r="I126" s="25" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="J126" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>296</v>
+        <v>428</v>
       </c>
       <c r="L126" s="7"/>
     </row>
@@ -4852,7 +4835,7 @@
         <v>255</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>292</v>
+        <v>429</v>
       </c>
       <c r="L127" s="7"/>
     </row>
@@ -4876,7 +4859,7 @@
         <v>255</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>297</v>
+        <v>430</v>
       </c>
       <c r="L128" s="7"/>
     </row>
@@ -4900,13 +4883,13 @@
         <v>255</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="L129" s="7"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>74</v>
@@ -4927,13 +4910,13 @@
         <v>255</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="L130" s="7"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>75</v>
@@ -4948,19 +4931,19 @@
       <c r="F131" s="3"/>
       <c r="H131" s="7"/>
       <c r="I131" s="12" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="J131" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="L131" s="7"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>76</v>
@@ -4981,13 +4964,13 @@
         <v>255</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L132" s="7"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>77</v>
@@ -5004,19 +4987,19 @@
         <v>207</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J133" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="L133" s="7"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>78</v>
@@ -5039,13 +5022,13 @@
         <v>255</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="L134" s="7"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>16</v>
@@ -5057,7 +5040,7 @@
       </c>
       <c r="F135" s="3"/>
       <c r="H135" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="L135" s="7"/>
     </row>
@@ -5065,28 +5048,28 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="H136" s="7"/>
       <c r="I136" s="12" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="L136" s="7"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>79</v>
@@ -5109,13 +5092,13 @@
         <v>255</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="L137" s="7"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>16</v>
@@ -5138,26 +5121,26 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="H139" s="7"/>
       <c r="I139" s="12" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J139" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="L139" s="7"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>80</v>
@@ -5175,16 +5158,16 @@
         <v>213</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="L140" s="7"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>16</v>
@@ -5196,7 +5179,7 @@
       </c>
       <c r="F141" s="3"/>
       <c r="H141" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
@@ -5205,20 +5188,20 @@
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="H142" s="7"/>
       <c r="I142" s="12" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="L142" s="7"/>
     </row>
@@ -5238,16 +5221,16 @@
       </c>
       <c r="F143" s="3"/>
       <c r="H143" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="J143" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="L143" s="7"/>
     </row>
@@ -5265,7 +5248,7 @@
       </c>
       <c r="F144" s="3"/>
       <c r="H144" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
@@ -5276,21 +5259,21 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="I145" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="K145" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="J145" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="K145" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="L145" s="7"/>
     </row>
@@ -5317,7 +5300,7 @@
         <v>255</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="L146" s="7"/>
     </row>
@@ -5337,16 +5320,16 @@
       </c>
       <c r="F147" s="3"/>
       <c r="H147" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="J147" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="L147" s="7"/>
     </row>
@@ -5375,19 +5358,19 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="I149" s="12" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="L149" s="7"/>
     </row>
@@ -5414,7 +5397,7 @@
         <v>255</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="L150" s="7"/>
     </row>
@@ -5440,10 +5423,10 @@
         <v>219</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="L151" s="7"/>
     </row>
@@ -5472,19 +5455,19 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="I153" s="12" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K153" s="27" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="L153" s="7"/>
     </row>
@@ -5502,7 +5485,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
       <c r="K154" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="L154" s="7"/>
     </row>
@@ -5538,13 +5521,13 @@
       </c>
       <c r="F156" s="3"/>
       <c r="I156" s="24" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J156" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K156" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="L156" s="7"/>
     </row>
@@ -5567,10 +5550,10 @@
         <v>125</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K157" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="L157" s="7"/>
     </row>
@@ -5590,7 +5573,7 @@
       <c r="I158" s="18"/>
       <c r="J158" s="18"/>
       <c r="K158" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="L158" s="7"/>
     </row>
@@ -5611,10 +5594,10 @@
         <v>184</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K159" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="L159" s="7"/>
     </row>
@@ -5639,7 +5622,7 @@
         <v>255</v>
       </c>
       <c r="K160" s="27" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="L160" s="7"/>
     </row>
@@ -5656,7 +5639,7 @@
       </c>
       <c r="F161" s="3"/>
       <c r="K161" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="L161" s="7"/>
     </row>
@@ -5670,7 +5653,7 @@
         <v>262</v>
       </c>
       <c r="K162" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="L162" s="7"/>
     </row>
@@ -5693,7 +5676,7 @@
         <v>264</v>
       </c>
       <c r="K163" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="L163" s="7"/>
     </row>
@@ -5712,13 +5695,13 @@
         <v>24</v>
       </c>
       <c r="I164" s="24" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="J164" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K164" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="L164" s="7"/>
     </row>
@@ -5752,13 +5735,13 @@
       </c>
       <c r="F166" s="3"/>
       <c r="I166" s="24" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J166" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K166" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="L166" s="7"/>
     </row>
@@ -5781,10 +5764,10 @@
         <v>125</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K167" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="L167" s="7"/>
     </row>
@@ -5804,7 +5787,7 @@
       <c r="I168" s="18"/>
       <c r="J168" s="18"/>
       <c r="K168" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="L168" s="7"/>
     </row>
@@ -5825,10 +5808,10 @@
         <v>184</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="K169" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="L169" s="7"/>
     </row>
@@ -5850,10 +5833,10 @@
         <v>185</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="K170" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="L170" s="7"/>
     </row>
@@ -5870,7 +5853,7 @@
       </c>
       <c r="F171" s="3"/>
       <c r="K171" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="L171" s="7"/>
     </row>
@@ -5884,7 +5867,7 @@
         <v>262</v>
       </c>
       <c r="K172" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="L172" s="7"/>
     </row>
@@ -5907,7 +5890,7 @@
         <v>264</v>
       </c>
       <c r="K173" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="L173" s="7"/>
     </row>
@@ -5926,13 +5909,13 @@
         <v>24</v>
       </c>
       <c r="I174" s="24" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="J174" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K174" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="L174" s="7"/>
     </row>
@@ -5967,7 +5950,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="H176" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
@@ -5984,13 +5967,13 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="I177" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="L177" s="7"/>
     </row>
@@ -6008,13 +5991,13 @@
       </c>
       <c r="F178" s="3"/>
       <c r="I178" s="13" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="J178" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="L178" s="7"/>
     </row>
@@ -6032,7 +6015,7 @@
       </c>
       <c r="F179" s="3"/>
       <c r="K179" s="7" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="L179" s="7"/>
     </row>
@@ -6047,7 +6030,7 @@
         <v>262</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="L180" s="7"/>
     </row>
@@ -6071,7 +6054,7 @@
         <v>264</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="L181" s="7"/>
     </row>
@@ -6095,7 +6078,7 @@
         <v>255</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="L182" s="7"/>
     </row>
@@ -6147,10 +6130,10 @@
         <v>125</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="L185" s="7"/>
     </row>
@@ -6168,7 +6151,7 @@
       </c>
       <c r="F186" s="3"/>
       <c r="K186" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="L186" s="7"/>
     </row>
@@ -6187,10 +6170,10 @@
         <v>126</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="L187" s="7"/>
     </row>
@@ -6212,7 +6195,7 @@
         <v>255</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="L188" s="7"/>
     </row>
@@ -6236,7 +6219,7 @@
         <v>255</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="L189" s="7"/>
     </row>
@@ -6258,7 +6241,7 @@
         <v>255</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="L190" s="7"/>
     </row>
@@ -6282,7 +6265,7 @@
         <v>255</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="L191" s="7"/>
     </row>
@@ -6306,7 +6289,7 @@
         <v>255</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="L192" s="7"/>
     </row>
@@ -6341,13 +6324,13 @@
       </c>
       <c r="F194" s="3"/>
       <c r="I194" s="24" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J194" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="L194" s="7"/>
     </row>
@@ -6370,10 +6353,10 @@
         <v>125</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="L195" s="7"/>
     </row>
@@ -6393,7 +6376,7 @@
       <c r="I196" s="18"/>
       <c r="J196" s="18"/>
       <c r="K196" s="7" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="L196" s="7"/>
     </row>
@@ -6414,10 +6397,10 @@
         <v>184</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="L197" s="7"/>
     </row>
@@ -6442,7 +6425,7 @@
         <v>255</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="L198" s="7"/>
     </row>
@@ -6459,7 +6442,7 @@
       </c>
       <c r="F199" s="3"/>
       <c r="K199" s="7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="L199" s="7"/>
     </row>
@@ -6473,7 +6456,7 @@
         <v>262</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="L200" s="7"/>
     </row>
@@ -6496,7 +6479,7 @@
         <v>264</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="L201" s="7"/>
     </row>
@@ -6515,13 +6498,13 @@
         <v>24</v>
       </c>
       <c r="I202" s="24" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="J202" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="L202" s="7"/>
     </row>
@@ -6554,13 +6537,13 @@
       </c>
       <c r="F204" s="3"/>
       <c r="I204" s="24" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J204" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="L204" s="7"/>
     </row>
@@ -6583,10 +6566,10 @@
         <v>125</v>
       </c>
       <c r="J205" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="L205" s="7"/>
     </row>
@@ -6606,7 +6589,7 @@
       <c r="I206" s="18"/>
       <c r="J206" s="18"/>
       <c r="K206" s="7" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="L206" s="7"/>
     </row>
@@ -6627,10 +6610,10 @@
         <v>184</v>
       </c>
       <c r="J207" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="L207" s="7"/>
     </row>
@@ -6655,7 +6638,7 @@
         <v>255</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="L208" s="7"/>
     </row>
@@ -6672,7 +6655,7 @@
       </c>
       <c r="F209" s="3"/>
       <c r="K209" s="7" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="L209" s="7"/>
     </row>
@@ -6686,7 +6669,7 @@
         <v>262</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="L210" s="7"/>
     </row>
@@ -6709,7 +6692,7 @@
         <v>264</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="L211" s="7"/>
     </row>
@@ -6728,13 +6711,13 @@
         <v>24</v>
       </c>
       <c r="I212" s="24" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="J212" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="L212" s="7"/>
     </row>
@@ -6790,10 +6773,10 @@
         <v>153</v>
       </c>
       <c r="J215" s="17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="L215" s="7"/>
     </row>
@@ -6813,13 +6796,13 @@
         <v>44</v>
       </c>
       <c r="I216" s="25" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="J216" s="17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="L216" s="7"/>
     </row>
@@ -6839,7 +6822,7 @@
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
       <c r="K217" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L217" s="7"/>
     </row>
@@ -6860,10 +6843,10 @@
         <v>154</v>
       </c>
       <c r="J218" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="L218" s="7"/>
     </row>
@@ -6887,7 +6870,7 @@
         <v>255</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="L219" s="7"/>
     </row>
@@ -6911,7 +6894,7 @@
         <v>255</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="L220" s="7"/>
     </row>
@@ -6935,7 +6918,7 @@
         <v>255</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="L221" s="7"/>
     </row>
@@ -6959,7 +6942,7 @@
         <v>255</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="L222" s="7"/>
     </row>
@@ -6983,7 +6966,7 @@
         <v>255</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="L223" s="7"/>
     </row>
@@ -7007,7 +6990,7 @@
         <v>255</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="L224" s="7"/>
     </row>
@@ -7048,7 +7031,7 @@
         <v>255</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="L226" s="7"/>
     </row>
@@ -7099,13 +7082,13 @@
         <v>59</v>
       </c>
       <c r="I229" s="24" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="L229" s="7"/>
     </row>
@@ -7126,10 +7109,10 @@
         <v>222</v>
       </c>
       <c r="J230" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="L230" s="7"/>
     </row>
@@ -7147,13 +7130,13 @@
       </c>
       <c r="F231" s="3"/>
       <c r="I231" s="22" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J231" s="16" t="s">
         <v>255</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="L231" s="7"/>
     </row>
@@ -7177,7 +7160,7 @@
         <v>255</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="L232" s="7"/>
     </row>
@@ -7195,13 +7178,13 @@
       </c>
       <c r="F233" s="3"/>
       <c r="I233" s="26" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J233" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="L233" s="7"/>
     </row>
@@ -7225,7 +7208,7 @@
         <v>255</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="L234" s="7"/>
     </row>
@@ -7249,7 +7232,7 @@
         <v>255</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="L235" s="7"/>
     </row>
@@ -7273,7 +7256,7 @@
         <v>255</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L236" s="7"/>
     </row>
@@ -7300,7 +7283,7 @@
       </c>
       <c r="J237" s="12"/>
       <c r="K237" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="L237" s="7"/>
     </row>

--- a/mapping/mml_referral_mapping.xlsx
+++ b/mapping/mml_referral_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="460">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -1086,6 +1086,563 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/content[openEHR-EHR-EVALUATION.family_history.v1 and name/value='Family history']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.family_history.v1 and name/value='Family history']/data[at0001]/items[openEHR-EHR-CLUSTER.multimedia.v1 and name/value='Multimedia Resource']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.progress_note.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Progress Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Test results']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical course']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Progress Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='unstructured medication']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/activities[at0001 and name/value='Request']/description[at0009]/items[at0062]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Remarks']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terimnology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.individual_professional-mml.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional Identifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0011.2 and name/value='Professional Identifier']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional Identifier type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.23]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.24]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.free_text.v1 and name/value='refer to unknown name']/items[at0001 and name/value='Free text']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master id/checkDigitSchema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address type with HL7 table</t>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier check digit schema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured telecoms/City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MML</t>
+  </si>
+  <si>
+    <t>nationality/secondary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured_telecoms/City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date Time attested</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.6.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.7.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.8.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.8.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.9.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.9.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.10.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.10.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/terminology_id/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/match</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]/magnitude</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]/value</t>
+  </si>
+  <si>
+    <t>mmlCm:contentType</t>
+  </si>
+  <si>
+    <t>mmlCm:medicalRole</t>
+  </si>
+  <si>
+    <t>mmlCm:title</t>
+  </si>
+  <si>
+    <t>mmlCm:href</t>
+  </si>
+  <si>
+    <t>citation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>URI to original data</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1094,39 +1651,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DV_MULTIMEDIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>href</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.family_history.v1 and name/value='Family history']/data[at0001]/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>href</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Source</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.family_history.v1 and name/value='Family history']/data[at0001]/items[openEHR-EHR-CLUSTER.multimedia.v1 and name/value='Multimedia Resource']/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1134,35 +1687,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openEHR-EHR-OBSERVATION.progress_note.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Progress Note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Test results']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>href</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical course']/data[at0001]/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Progress Note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='unstructured medication']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1170,497 +1719,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/activities[at0001 and name/value='Request']/description[at0009]/items[at0062]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Remarks']/data[at0001]/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/va.ue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terimnology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_IDENTIFIER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.individual_professional-mml.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Professional Identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0011.2 and name/value='Professional Identifier']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Professional Identifier type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.23]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.24]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_CODED_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.free_text.v1 and name/value='refer to unknown name']/items[at0001 and name/value='Free text']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>master id/checkDigitSchema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Address type with HL7 table</t>
-  </si>
-  <si>
-    <t>Name of organisation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Identifier check digit schema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Telecoms type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extension</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*structured telecoms/City</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MML</t>
-  </si>
-  <si>
-    <t>nationality/secondary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Telecoms type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*structured_telecoms/City</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extension</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date Time attested</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extension</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.3.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.4.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.5.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.6.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.7.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.8.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.8.1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.9.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.9.1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.10.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.10.1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/code_string</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/terminology_id/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/match</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]/magnitude</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]/value</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1861,6 +1933,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2163,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L242"/>
+  <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" topLeftCell="D158" workbookViewId="0">
+      <selection activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2182,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2388,7 +2466,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="22" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2813,7 +2891,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="23" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2987,7 +3065,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="23" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="7"/>
@@ -3253,7 +3331,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="23" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="7"/>
@@ -3296,7 +3374,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="23" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="7"/>
@@ -3339,7 +3417,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="23" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3493,7 +3571,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="25" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="7"/>
@@ -3568,7 +3646,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>180</v>
@@ -3643,7 +3721,7 @@
       </c>
       <c r="F72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="L72" s="7"/>
     </row>
@@ -3658,7 +3736,7 @@
         <v>262</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L73" s="7"/>
     </row>
@@ -3952,7 +4030,7 @@
       </c>
       <c r="F87" s="3"/>
       <c r="I87" s="24" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J87" s="12" t="s">
         <v>255</v>
@@ -4070,7 +4148,7 @@
       </c>
       <c r="F92" s="3"/>
       <c r="K92" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L92" s="7"/>
     </row>
@@ -4084,7 +4162,7 @@
         <v>262</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="L93" s="7"/>
     </row>
@@ -4126,7 +4204,7 @@
         <v>24</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="J95" s="12" t="s">
         <v>255</v>
@@ -4165,13 +4243,13 @@
       </c>
       <c r="F97" s="3"/>
       <c r="I97" s="24" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J97" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="L97" s="7"/>
     </row>
@@ -4197,7 +4275,7 @@
         <v>257</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="L98" s="7"/>
     </row>
@@ -4216,7 +4294,7 @@
       <c r="F99" s="3"/>
       <c r="I99" s="18"/>
       <c r="K99" s="12" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="L99" s="7"/>
     </row>
@@ -4240,7 +4318,7 @@
         <v>267</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L100" s="7"/>
     </row>
@@ -4265,7 +4343,7 @@
         <v>255</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="L101" s="7"/>
     </row>
@@ -4282,7 +4360,7 @@
       </c>
       <c r="F102" s="3"/>
       <c r="K102" s="12" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="L102" s="7"/>
     </row>
@@ -4296,7 +4374,7 @@
         <v>262</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="L103" s="7"/>
     </row>
@@ -4319,7 +4397,7 @@
         <v>268</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="L104" s="7"/>
     </row>
@@ -4338,13 +4416,13 @@
         <v>24</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="J105" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="L105" s="7"/>
     </row>
@@ -4423,7 +4501,7 @@
         <v>44</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="J109" s="17" t="s">
         <v>269</v>
@@ -4658,7 +4736,7 @@
         <v>255</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="L119" s="7"/>
     </row>
@@ -4709,13 +4787,13 @@
         <v>59</v>
       </c>
       <c r="I122" s="25" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J122" s="12" t="s">
         <v>269</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L122" s="7"/>
     </row>
@@ -4739,7 +4817,7 @@
         <v>271</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="L123" s="7"/>
     </row>
@@ -4757,13 +4835,13 @@
       </c>
       <c r="F124" s="3"/>
       <c r="I124" s="23" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="J124" s="16" t="s">
         <v>255</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="L124" s="7"/>
     </row>
@@ -4787,7 +4865,7 @@
         <v>255</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="L125" s="7"/>
     </row>
@@ -4805,13 +4883,13 @@
       </c>
       <c r="F126" s="3"/>
       <c r="I126" s="25" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J126" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="L126" s="7"/>
     </row>
@@ -4835,7 +4913,7 @@
         <v>255</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="L127" s="7"/>
     </row>
@@ -4859,7 +4937,7 @@
         <v>255</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="L128" s="7"/>
     </row>
@@ -4883,13 +4961,13 @@
         <v>255</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L129" s="7"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>74</v>
@@ -4916,7 +4994,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>75</v>
@@ -4943,7 +5021,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>76</v>
@@ -4970,7 +5048,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>77</v>
@@ -4999,7 +5077,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>78</v>
@@ -5028,7 +5106,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>16</v>
@@ -5048,208 +5126,204 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>295</v>
+        <v>429</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E136" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="H136" s="7"/>
-      <c r="I136" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>293</v>
+      <c r="I136" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J136" s="29" t="s">
+        <v>439</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>294</v>
+        <v>441</v>
       </c>
       <c r="L136" s="7"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A137" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C137" s="3"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="D137" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F137" s="3"/>
-      <c r="H137" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="J137" s="12" t="s">
-        <v>255</v>
+      <c r="H137" s="7"/>
+      <c r="I137" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J137" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>297</v>
+        <v>440</v>
       </c>
       <c r="L137" s="7"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A138" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E138" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" s="3"/>
-      <c r="H138" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J138" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="L138" s="7"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+        <v>432</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="H139" s="7"/>
-      <c r="I139" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>255</v>
+      <c r="I139" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J139" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>300</v>
+        <v>443</v>
       </c>
       <c r="L139" s="7"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A140" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
-      <c r="H140" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I140" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K140" s="7" t="s">
-        <v>302</v>
-      </c>
+      <c r="H140" s="7"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E141" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F141" s="3"/>
       <c r="H141" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K141" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>292</v>
+      </c>
       <c r="L141" s="7"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3" t="s">
-        <v>298</v>
-      </c>
+      <c r="A142" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F142" s="3"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J142" s="12" t="s">
+      <c r="H142" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="K142" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L142" s="7"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A143" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F143" s="3"/>
-      <c r="H143" t="s">
-        <v>304</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="J143" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="L143" s="7"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A144" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E144" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" s="3"/>
-      <c r="H144" s="7" t="s">
-        <v>291</v>
-      </c>
+      <c r="H144" s="7"/>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
       <c r="K144" s="7"/>
@@ -5259,83 +5333,70 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E145" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F145" s="3"/>
-      <c r="I145" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J145" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="K145" s="7" t="s">
-        <v>308</v>
-      </c>
+      <c r="H145" s="7"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A146" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E146" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F146" s="3"/>
-      <c r="H146" t="s">
-        <v>214</v>
-      </c>
-      <c r="I146" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="J146" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K146" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="H146" s="7"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>86</v>
+        <v>409</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E147" s="3"/>
       <c r="F147" s="3"/>
-      <c r="H147" t="s">
-        <v>304</v>
+      <c r="H147" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="L147" s="7"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>88</v>
+        <v>410</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>16</v>
@@ -5346,11 +5407,9 @@
         <v>11</v>
       </c>
       <c r="F148" s="3"/>
-      <c r="H148" t="s">
-        <v>216</v>
-      </c>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
+      <c r="H148" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
@@ -5358,176 +5417,197 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J149" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L149" s="7"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J150" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L150" s="7"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J151" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L151" s="7"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J152" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L152" s="7"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A153" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="H153" t="s">
+        <v>297</v>
+      </c>
+      <c r="I153" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="I149" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J149" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L149" s="7"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A150" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="H150" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I150" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="J150" s="12" t="s">
+      <c r="J153" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="K150" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L150" s="7"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A151" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="3"/>
-      <c r="H151" t="s">
-        <v>214</v>
-      </c>
-      <c r="I151" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="J151" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L151" s="7"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A152" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="3"/>
-      <c r="H152" t="s">
-        <v>216</v>
-      </c>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="7"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="I153" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J153" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="K153" s="27" t="s">
-        <v>404</v>
+      <c r="K153" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="L153" s="7"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F154" s="3"/>
+      <c r="H154" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
-      <c r="K154" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A155" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C155" s="3"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="D155" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E155" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F155" s="3"/>
-      <c r="H155" t="s">
-        <v>183</v>
+      <c r="I155" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J155" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="L155" s="7"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
-      <c r="B156" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="D156" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F156" s="3"/>
-      <c r="I156" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="J156" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K156" t="s">
-        <v>317</v>
+      <c r="I156" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J156" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="L156" s="7"/>
     </row>
@@ -5535,25 +5615,23 @@
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3" t="s">
-        <v>39</v>
+        <v>431</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I157" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J157" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K157" t="s">
-        <v>318</v>
+        <v>12</v>
+      </c>
+      <c r="F157" s="3"/>
+      <c r="I157" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J157" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="L157" s="7"/>
     </row>
@@ -5561,129 +5639,156 @@
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3" t="s">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F158" s="3"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" t="s">
-        <v>319</v>
+      <c r="I158" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J158" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="L158" s="7"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A159" s="3"/>
+      <c r="A159" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="B159" s="3" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C159" s="3"/>
-      <c r="D159" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="3"/>
+      <c r="H159" t="s">
+        <v>214</v>
+      </c>
       <c r="I159" s="12" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="K159" t="s">
-        <v>320</v>
+        <v>255</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="L159" s="7"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A160" s="3"/>
-      <c r="C160" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A160" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="F160" s="3"/>
+      <c r="H160" t="s">
+        <v>297</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="J160" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="K160" s="27" t="s">
-        <v>403</v>
+      <c r="K160" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="L160" s="7"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A161" s="3"/>
-      <c r="C161" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A161" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F161" s="3"/>
-      <c r="K161" t="s">
-        <v>388</v>
-      </c>
+      <c r="H161" t="s">
+        <v>216</v>
+      </c>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="7"/>
       <c r="L161" s="7"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F162" s="3"/>
-      <c r="H162" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K162" t="s">
-        <v>389</v>
+      <c r="I162" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J162" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="L162" s="7"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
       <c r="C163" s="3" t="s">
-        <v>22</v>
+        <v>430</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="3"/>
-      <c r="I163" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J163" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K163" t="s">
-        <v>326</v>
+      <c r="I163" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J163" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="L163" s="7"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
       <c r="C164" s="3" t="s">
-        <v>23</v>
+        <v>431</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>7</v>
@@ -5691,449 +5796,484 @@
       <c r="E164" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I164" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="J164" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K164" t="s">
-        <v>327</v>
+      <c r="F164" s="3"/>
+      <c r="I164" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J164" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="L164" s="7"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F165" s="3"/>
-      <c r="H165" t="s">
-        <v>25</v>
+      <c r="I165" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J165" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="L165" s="7"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A166" s="3"/>
+      <c r="A166" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="B166" s="3" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="I166" s="24" t="s">
-        <v>398</v>
+      <c r="H166" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="J166" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="K166" t="s">
-        <v>321</v>
+      <c r="K166" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="L166" s="7"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="A167" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="F167" s="3"/>
+      <c r="H167" t="s">
+        <v>214</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K167" t="s">
-        <v>323</v>
+        <v>305</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="L167" s="7"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A168" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F168" s="3"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" t="s">
-        <v>322</v>
-      </c>
+      <c r="H168" t="s">
+        <v>216</v>
+      </c>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="7"/>
       <c r="L168" s="7"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
-      <c r="B169" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="D169" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F169" s="3"/>
-      <c r="I169" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J169" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="K169" t="s">
-        <v>325</v>
+      <c r="I169" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J169" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="K169" s="27" t="s">
+        <v>456</v>
       </c>
       <c r="L169" s="7"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
       <c r="C170" s="3" t="s">
-        <v>20</v>
+        <v>430</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I170" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J170" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="K170" t="s">
-        <v>337</v>
+        <v>12</v>
+      </c>
+      <c r="F170" s="3"/>
+      <c r="I170" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J170" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K170" s="27" t="s">
+        <v>457</v>
       </c>
       <c r="L170" s="7"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
       <c r="C171" s="3" t="s">
-        <v>21</v>
+        <v>431</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F171" s="3"/>
-      <c r="K171" t="s">
-        <v>390</v>
+      <c r="I171" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J171" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K171" s="27" t="s">
+        <v>458</v>
       </c>
       <c r="L171" s="7"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F172" s="3"/>
-      <c r="H172" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K172" t="s">
-        <v>391</v>
+      <c r="I172" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J172" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="K172" s="27" t="s">
+        <v>459</v>
       </c>
       <c r="L172" s="7"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A173" s="3"/>
-      <c r="C173" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A173" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
       <c r="F173" s="3"/>
-      <c r="I173" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J173" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K173" t="s">
-        <v>329</v>
-      </c>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="7"/>
       <c r="L173" s="7"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A174" s="3"/>
-      <c r="C174" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A174" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I174" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="J174" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="H174" t="s">
+        <v>183</v>
+      </c>
+      <c r="L174" s="7"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="I175" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="J175" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="K174" t="s">
-        <v>336</v>
-      </c>
-      <c r="L174" s="7"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" s="3"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="7"/>
+      <c r="K175" t="s">
+        <v>306</v>
+      </c>
       <c r="L175" s="7"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A176" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="H176" t="s">
-        <v>330</v>
-      </c>
-      <c r="K176" s="7"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J176" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K176" t="s">
+        <v>307</v>
+      </c>
       <c r="L176" s="7"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
-      <c r="B177" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D177" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="3"/>
+      <c r="E177" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F177" s="3"/>
-      <c r="I177" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="J177" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K177" s="7" t="s">
-        <v>332</v>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" t="s">
+        <v>308</v>
       </c>
       <c r="L177" s="7"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="B178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="F178" s="3"/>
-      <c r="I178" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="J178" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="K178" s="7" t="s">
-        <v>335</v>
+      <c r="I178" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J178" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K178" t="s">
+        <v>309</v>
       </c>
       <c r="L178" s="7"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
       <c r="C179" s="3" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F179" s="3"/>
-      <c r="K179" s="7" t="s">
-        <v>334</v>
+        <v>17</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J179" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K179" s="27" t="s">
+        <v>392</v>
       </c>
       <c r="L179" s="7"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
+      <c r="C180" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F180" s="3"/>
-      <c r="H180" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K180" s="7" t="s">
-        <v>338</v>
+      <c r="K180" t="s">
+        <v>377</v>
       </c>
       <c r="L180" s="7"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
       <c r="F181" s="3"/>
-      <c r="I181" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J181" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="K181" s="7" t="s">
-        <v>339</v>
+      <c r="H181" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K181" t="s">
+        <v>378</v>
       </c>
       <c r="L181" s="7"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
       <c r="C182" s="3" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F182" s="3"/>
-      <c r="I182" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="J182" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K182" s="7" t="s">
-        <v>340</v>
+      <c r="I182" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J182" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K182" t="s">
+        <v>315</v>
       </c>
       <c r="L182" s="7"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" s="3"/>
-      <c r="B183" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="K183" s="7"/>
+      <c r="C183" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J183" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K183" t="s">
+        <v>316</v>
+      </c>
       <c r="L183" s="7"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A184" s="3"/>
+      <c r="A184" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="B184" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="H184" t="s">
-        <v>29</v>
-      </c>
-      <c r="K184" s="7"/>
+        <v>25</v>
+      </c>
       <c r="L184" s="7"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B185" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185" s="3"/>
       <c r="D185" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I185" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J185" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="K185" s="7" t="s">
-        <v>341</v>
+        <v>10</v>
+      </c>
+      <c r="F185" s="3"/>
+      <c r="I185" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="J185" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K185" t="s">
+        <v>310</v>
       </c>
       <c r="L185" s="7"/>
     </row>
@@ -6141,409 +6281,391 @@
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="K186" s="7" t="s">
-        <v>342</v>
+        <v>17</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J186" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K186" t="s">
+        <v>312</v>
       </c>
       <c r="L186" s="7"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="3"/>
-      <c r="B187" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D187" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E187" s="3"/>
+      <c r="E187" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F187" s="3"/>
-      <c r="I187" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J187" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="K187" s="7" t="s">
-        <v>343</v>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18"/>
+      <c r="K187" t="s">
+        <v>311</v>
       </c>
       <c r="L187" s="7"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E188" s="3"/>
+      <c r="E188" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F188" s="3"/>
-      <c r="I188" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J188" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K188" s="7" t="s">
-        <v>344</v>
+      <c r="I188" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J188" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K188" t="s">
+        <v>314</v>
       </c>
       <c r="L188" s="7"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="3"/>
-      <c r="B189" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D189" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" s="3"/>
-      <c r="I189" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J189" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K189" s="7" t="s">
-        <v>345</v>
+        <v>17</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I189" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J189" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="K189" t="s">
+        <v>326</v>
       </c>
       <c r="L189" s="7"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="3"/>
-      <c r="B190" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D190" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E190" s="3"/>
+      <c r="E190" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F190" s="3"/>
-      <c r="I190" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J190" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K190" s="7" t="s">
-        <v>346</v>
+      <c r="K190" t="s">
+        <v>379</v>
       </c>
       <c r="L190" s="7"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="3"/>
-      <c r="B191" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
       <c r="F191" s="3"/>
-      <c r="I191" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J191" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K191" s="7" t="s">
-        <v>347</v>
+      <c r="H191" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K191" t="s">
+        <v>380</v>
       </c>
       <c r="L191" s="7"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="3"/>
-      <c r="B192" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F192" s="3"/>
-      <c r="I192" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J192" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="K192" s="7" t="s">
-        <v>348</v>
+      <c r="I192" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J192" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K192" t="s">
+        <v>318</v>
       </c>
       <c r="L192" s="7"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="3"/>
-      <c r="B193" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D193" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="H193" t="s">
-        <v>183</v>
-      </c>
-      <c r="K193" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J193" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K193" t="s">
+        <v>325</v>
+      </c>
       <c r="L193" s="7"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A194" s="3"/>
+      <c r="A194" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B194" s="3" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C194" s="3"/>
-      <c r="D194" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F194" s="3"/>
-      <c r="I194" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="J194" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K194" s="7" t="s">
-        <v>349</v>
-      </c>
+      <c r="H194" s="7"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="7"/>
       <c r="L194" s="7"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I195" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J195" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="K195" s="7" t="s">
-        <v>351</v>
-      </c>
+      <c r="A195" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="H195" t="s">
+        <v>319</v>
+      </c>
+      <c r="K195" s="7"/>
       <c r="L195" s="7"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B196" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="3"/>
       <c r="D196" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E196" s="3"/>
       <c r="F196" s="3"/>
-      <c r="I196" s="18"/>
-      <c r="J196" s="18"/>
+      <c r="I196" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="J196" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="K196" s="7" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="L196" s="7"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" s="3"/>
-      <c r="B197" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D197" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="F197" s="3"/>
-      <c r="I197" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J197" s="12" t="s">
-        <v>267</v>
+      <c r="I197" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="J197" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="L197" s="7"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="3" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I198" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J198" s="12" t="s">
-        <v>255</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F198" s="3"/>
       <c r="K198" s="7" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="L198" s="7"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A199" s="3"/>
-      <c r="C199" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
       <c r="F199" s="3"/>
+      <c r="H199" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="K199" s="7" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="L199" s="7"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="F200" s="3"/>
-      <c r="H200" s="4" t="s">
-        <v>262</v>
+      <c r="I200" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J200" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="L200" s="7"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
       <c r="C201" s="3" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F201" s="3"/>
-      <c r="I201" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J201" s="12" t="s">
-        <v>264</v>
+      <c r="I201" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J201" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="L201" s="7"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A202" s="3"/>
-      <c r="C202" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I202" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="J202" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K202" s="7" t="s">
-        <v>356</v>
-      </c>
+      <c r="B202" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="K202" s="7"/>
       <c r="L202" s="7"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+      <c r="E203" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="H203" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" s="3"/>
-      <c r="B204" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D204" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" s="3"/>
-      <c r="I204" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="J204" s="12" t="s">
-        <v>255</v>
+        <v>17</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J204" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="L204" s="7"/>
     </row>
@@ -6551,779 +6673,1189 @@
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I205" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J205" s="12" t="s">
-        <v>269</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F205" s="3"/>
       <c r="K205" s="7" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="L205" s="7"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="B206" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E206" s="3"/>
       <c r="F206" s="3"/>
-      <c r="I206" s="18"/>
-      <c r="J206" s="18"/>
+      <c r="I206" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J206" s="12" t="s">
+        <v>274</v>
+      </c>
       <c r="K206" s="7" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="L206" s="7"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E207" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E207" s="3"/>
       <c r="F207" s="3"/>
-      <c r="I207" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J207" s="12" t="s">
-        <v>267</v>
+      <c r="I207" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J207" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="L207" s="7"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A208" s="3"/>
-      <c r="C208" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B208" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I208" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J208" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" s="3"/>
+      <c r="I208" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J208" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="L208" s="7"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" s="3"/>
-      <c r="C209" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E209" s="3"/>
       <c r="F209" s="3"/>
+      <c r="I209" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J209" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="K209" s="7" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="L209" s="7"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" s="3"/>
+      <c r="B210" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+      <c r="D210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F210" s="3"/>
-      <c r="H210" s="4" t="s">
-        <v>262</v>
+      <c r="I210" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J210" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="L210" s="7"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" s="3"/>
-      <c r="C211" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B211" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C211" s="3"/>
       <c r="D211" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F211" s="3"/>
-      <c r="I211" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J211" s="12" t="s">
-        <v>264</v>
+      <c r="I211" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J211" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="L211" s="7"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="3"/>
-      <c r="C212" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B212" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I212" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="J212" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K212" s="7" t="s">
-        <v>363</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="H212" t="s">
+        <v>183</v>
+      </c>
+      <c r="K212" s="7"/>
       <c r="L212" s="7"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
+      <c r="D213" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E213" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F213" s="3"/>
-      <c r="H213" t="s">
-        <v>152</v>
-      </c>
-      <c r="K213" s="7"/>
+      <c r="I213" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="J213" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K213" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="L213" s="7"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A214" s="3"/>
-      <c r="B214" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F214" s="3"/>
-      <c r="I214" s="17"/>
-      <c r="J214" s="17"/>
-      <c r="K214" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I214" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J214" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="K214" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="L214" s="7"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A215" s="3"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F215" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I215" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="J215" s="17" t="s">
-        <v>269</v>
-      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="3"/>
+      <c r="I215" s="18"/>
+      <c r="J215" s="18"/>
       <c r="K215" s="7" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L215" s="7"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A216" s="3"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I216" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="J216" s="17" t="s">
-        <v>269</v>
+      <c r="B216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" s="3"/>
+      <c r="I216" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J216" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="L216" s="7"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A217" s="3"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="6"/>
-      <c r="I217" s="17"/>
-      <c r="J217" s="17"/>
+      <c r="C217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I217" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J217" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="K217" s="7" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="L217" s="7"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" s="3"/>
-      <c r="B218" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" s="6"/>
-      <c r="I218" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J218" s="13" t="s">
-        <v>274</v>
-      </c>
+      <c r="C218" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" s="3"/>
       <c r="K218" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="L218" s="7"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" s="3"/>
-      <c r="B219" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F219" s="6"/>
-      <c r="I219" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="J219" s="13" t="s">
-        <v>255</v>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="H219" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="L219" s="7"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" s="3"/>
-      <c r="B220" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F220" s="6"/>
-      <c r="I220" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J220" s="13" t="s">
-        <v>255</v>
+      <c r="C220" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="3"/>
+      <c r="I220" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J220" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="L220" s="7"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" s="3"/>
-      <c r="B221" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F221" s="6"/>
-      <c r="I221" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J221" s="13" t="s">
+      <c r="C221" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I221" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J221" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="L221" s="7"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" s="3"/>
-      <c r="B222" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F222" s="6"/>
-      <c r="I222" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J222" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K222" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="B222" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="H222" t="s">
+        <v>183</v>
+      </c>
+      <c r="K222" s="7"/>
       <c r="L222" s="7"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A223" s="3"/>
-      <c r="B223" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F223" s="6"/>
-      <c r="I223" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J223" s="13" t="s">
+      <c r="B223" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="3"/>
+      <c r="I223" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="J223" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="L223" s="7"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A224" s="3"/>
-      <c r="B224" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224" s="6"/>
-      <c r="I224" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J224" s="13" t="s">
-        <v>255</v>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I224" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J224" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="L224" s="7"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A225" s="3"/>
-      <c r="B225" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E225" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F225" s="3"/>
-      <c r="H225" t="s">
-        <v>197</v>
-      </c>
-      <c r="K225" s="7"/>
+      <c r="I225" s="18"/>
+      <c r="J225" s="18"/>
+      <c r="K225" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="L225" s="7"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F226" s="3"/>
-      <c r="I226" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J226" s="13" t="s">
-        <v>255</v>
+      <c r="I226" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J226" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="L226" s="7"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" s="3"/>
-      <c r="B227" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
+      <c r="C227" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E227" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F227" s="3"/>
-      <c r="K227" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I227" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J227" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K227" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="L227" s="7"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" s="3"/>
-      <c r="B228" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
+      <c r="C228" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E228" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F228" s="3"/>
-      <c r="H228" t="s">
-        <v>197</v>
-      </c>
-      <c r="K228" s="7"/>
+      <c r="K228" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="L228" s="7"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I229" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="J229" s="12" t="s">
-        <v>269</v>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="H229" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L229" s="7"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" s="3"/>
-      <c r="B230" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C230" s="3"/>
+      <c r="C230" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D230" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F230" s="3"/>
-      <c r="I230" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="J230" s="13" t="s">
-        <v>271</v>
+      <c r="I230" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J230" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="L230" s="7"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" s="3"/>
-      <c r="B231" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C231" s="3"/>
+      <c r="C231" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D231" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F231" s="3"/>
-      <c r="I231" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="J231" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I231" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J231" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="L231" s="7"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="C232" s="3"/>
-      <c r="D232" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D232" s="3"/>
       <c r="E232" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F232" s="3"/>
-      <c r="I232" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J232" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K232" s="7" t="s">
-        <v>378</v>
-      </c>
+      <c r="H232" t="s">
+        <v>152</v>
+      </c>
+      <c r="K232" s="7"/>
       <c r="L232" s="7"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C233" s="3"/>
-      <c r="D233" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D233" s="3"/>
       <c r="E233" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F233" s="3"/>
-      <c r="I233" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="J233" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K233" s="7" t="s">
-        <v>379</v>
-      </c>
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
+      <c r="K233" s="7"/>
       <c r="L233" s="7"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" s="3"/>
-      <c r="B234" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F234" s="3"/>
-      <c r="I234" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="J234" s="13" t="s">
-        <v>255</v>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I234" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J234" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="L234" s="7"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235" s="3"/>
-      <c r="B235" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F235" s="3"/>
-      <c r="I235" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="J235" s="13" t="s">
-        <v>255</v>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I235" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="J235" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="L235" s="7"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236" s="3"/>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="6"/>
+      <c r="C236" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="6"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L236" s="7"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A237" s="3"/>
+      <c r="B237" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="6"/>
+      <c r="I237" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J237" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K237" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L237" s="7"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A238" s="3"/>
+      <c r="B238" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" s="6"/>
+      <c r="I238" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J238" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K238" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L238" s="7"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A239" s="3"/>
+      <c r="B239" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" s="6"/>
+      <c r="I239" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J239" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K239" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L239" s="7"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A240" s="3"/>
+      <c r="B240" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" s="6"/>
+      <c r="I240" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J240" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K240" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L240" s="7"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A241" s="3"/>
+      <c r="B241" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" s="6"/>
+      <c r="I241" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J241" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K241" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L241" s="7"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A242" s="3"/>
+      <c r="B242" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" s="6"/>
+      <c r="I242" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J242" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K242" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L242" s="7"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A243" s="3"/>
+      <c r="B243" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="6"/>
+      <c r="I243" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J243" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K243" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L243" s="7"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="3"/>
+      <c r="H244" t="s">
+        <v>197</v>
+      </c>
+      <c r="K244" s="7"/>
+      <c r="L244" s="7"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245" s="3"/>
+      <c r="I245" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J245" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K245" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L245" s="7"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" s="3"/>
+      <c r="K246" s="7"/>
+      <c r="L246" s="7"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" s="3"/>
+      <c r="H247" t="s">
+        <v>197</v>
+      </c>
+      <c r="K247" s="7"/>
+      <c r="L247" s="7"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I248" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="J248" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K248" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L248" s="7"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249" s="3"/>
+      <c r="I249" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J249" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K249" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L249" s="7"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" s="3"/>
+      <c r="I250" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="J250" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="K250" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L250" s="7"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="3"/>
+      <c r="I251" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J251" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K251" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L251" s="7"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="3"/>
+      <c r="I252" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="J252" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K252" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L252" s="7"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" s="3"/>
+      <c r="I253" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="J253" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K253" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L253" s="7"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="3"/>
+      <c r="I254" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J254" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K254" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L254" s="7"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" s="3"/>
-      <c r="I236" s="16" t="s">
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255" s="3"/>
+      <c r="I255" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="J236" s="16" t="s">
+      <c r="J255" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="K236" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L236" s="7"/>
-    </row>
-    <row r="237" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A237" s="3" t="s">
+      <c r="K255" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L255" s="7"/>
+    </row>
+    <row r="256" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A256" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F237" s="3"/>
-      <c r="H237" t="s">
+      <c r="C256" s="3"/>
+      <c r="D256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256" s="3"/>
+      <c r="H256" t="s">
         <v>220</v>
       </c>
-      <c r="I237" s="12" t="s">
+      <c r="I256" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="J237" s="12"/>
-      <c r="K237" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L237" s="7"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H238" s="7"/>
-      <c r="I238" s="14"/>
-      <c r="J238" s="14"/>
-      <c r="K238" s="7"/>
-      <c r="L238" s="7"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H239" s="7"/>
-      <c r="I239" s="14"/>
-      <c r="J239" s="14"/>
-      <c r="K239" s="7"/>
-      <c r="L239" s="7"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H240" s="7"/>
-      <c r="I240" s="14"/>
-      <c r="J240" s="14"/>
-      <c r="K240" s="7"/>
-      <c r="L240" s="7"/>
-    </row>
-    <row r="241" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G241" t="s">
+      <c r="J256" s="12"/>
+      <c r="K256" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L256" s="7"/>
+    </row>
+    <row r="257" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H257" s="7"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
+      <c r="K257" s="7"/>
+      <c r="L257" s="7"/>
+    </row>
+    <row r="258" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H258" s="7"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="14"/>
+      <c r="K258" s="7"/>
+      <c r="L258" s="7"/>
+    </row>
+    <row r="259" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H259" s="7"/>
+      <c r="I259" s="14"/>
+      <c r="J259" s="14"/>
+      <c r="K259" s="7"/>
+      <c r="L259" s="7"/>
+    </row>
+    <row r="260" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G260" t="s">
         <v>227</v>
       </c>
-      <c r="H241" s="7"/>
-      <c r="I241" s="14"/>
-      <c r="J241" s="14"/>
-      <c r="K241" s="7"/>
-      <c r="L241" s="7"/>
-    </row>
-    <row r="242" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H242" s="7"/>
-      <c r="I242" s="12"/>
-      <c r="J242" s="12"/>
-      <c r="K242" s="7"/>
-      <c r="L242" s="7"/>
+      <c r="H260" s="7"/>
+      <c r="I260" s="14"/>
+      <c r="J260" s="14"/>
+      <c r="K260" s="7"/>
+      <c r="L260" s="7"/>
+    </row>
+    <row r="261" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H261" s="7"/>
+      <c r="I261" s="12"/>
+      <c r="J261" s="12"/>
+      <c r="K261" s="7"/>
+      <c r="L261" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mapping/mml_referral_mapping.xlsx
+++ b/mapping/mml_referral_mapping.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skoba\OneDrive\ドキュメント\GitHub\mml\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15240" windowHeight="8160"/>
   </bookViews>
@@ -1118,627 +1123,627 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Progress Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='unstructured medication']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/activities[at0001 and name/value='Request']/description[at0009]/items[at0062]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Remarks']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terimnology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.individual_professional-mml.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional Identifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0011.2 and name/value='Professional Identifier']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional Identifier type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.23]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.24]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.free_text.v1 and name/value='refer to unknown name']/items[at0001 and name/value='Free text']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master id/checkDigitSchema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address type with HL7 table</t>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier check digit schema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured telecoms/City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MML</t>
+  </si>
+  <si>
+    <t>nationality/secondary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured_telecoms/City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date Time attested</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.6.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.7.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.8.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.8.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.9.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.9.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.10.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.10.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/terminology_id/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/match</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]/magnitude</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]/value</t>
+  </si>
+  <si>
+    <t>mmlCm:contentType</t>
+  </si>
+  <si>
+    <t>mmlCm:medicalRole</t>
+  </si>
+  <si>
+    <t>mmlCm:title</t>
+  </si>
+  <si>
+    <t>mmlCm:href</t>
+  </si>
+  <si>
+    <t>citation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URI to original data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_MULTIMEDIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/va.ue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical course']/data[at0001]/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Progress Note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='unstructured medication']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/activities[at0001 and name/value='Request']/description[at0009]/items[at0062]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Remarks']/data[at0001]/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terimnology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_IDENTIFIER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.individual_professional-mml.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Professional Identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0011.2 and name/value='Professional Identifier']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Professional Identifier type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.23]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.24]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_CODED_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.free_text.v1 and name/value='refer to unknown name']/items[at0001 and name/value='Free text']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[at0.22]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>master id/checkDigitSchema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Address type with HL7 table</t>
-  </si>
-  <si>
-    <t>Name of organisation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Identifier check digit schema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Telecoms type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extension</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*structured telecoms/City</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MML</t>
-  </si>
-  <si>
-    <t>nationality/secondary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Telecoms type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*structured_telecoms/City</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extension</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date Time attested</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structured_telecoms/extension</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.3.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.4.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.5.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.6.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.7.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.8.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.8.1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.9.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.9.1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.10.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.10.1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/code_string</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/terminology_id/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/match</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]/magnitude</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='refer from person']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]/value</t>
-  </si>
-  <si>
-    <t>mmlCm:contentType</t>
-  </si>
-  <si>
-    <t>mmlCm:medicalRole</t>
-  </si>
-  <si>
-    <t>mmlCm:title</t>
-  </si>
-  <si>
-    <t>mmlCm:href</t>
-  </si>
-  <si>
-    <t>citation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URI to original data</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_URI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_MULTIMEDIA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Past history']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.story.v1 and name/value='Present illness']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Test extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1 and name/value='Medication Order List']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/va.ue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1950,12 +1955,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1997,7 +2005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2030,9 +2038,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2065,6 +2090,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2243,27 +2285,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D158" workbookViewId="0">
-      <selection activeCell="K173" sqref="K173"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
-    <col min="9" max="10" width="16.25" style="13" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" customWidth="1"/>
+    <col min="9" max="10" width="16.265625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -2281,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>68</v>
@@ -2299,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2316,7 +2358,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2335,7 +2377,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
         <v>104</v>
@@ -2350,7 +2392,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
         <v>105</v>
@@ -2365,7 +2407,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="8" t="s">
         <v>19</v>
@@ -2389,7 +2431,7 @@
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
         <v>107</v>
@@ -2410,7 +2452,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
         <v>111</v>
@@ -2429,7 +2471,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
         <v>112</v>
@@ -2450,7 +2492,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
         <v>116</v>
@@ -2466,12 +2508,12 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
         <v>117</v>
@@ -2488,7 +2530,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
@@ -2512,7 +2554,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
         <v>19</v>
@@ -2531,7 +2573,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
         <v>107</v>
@@ -2552,7 +2594,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
         <v>111</v>
@@ -2571,7 +2613,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
         <v>112</v>
@@ -2592,7 +2634,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="8" t="s">
         <v>116</v>
@@ -2613,7 +2655,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
         <v>27</v>
@@ -2628,7 +2670,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
         <v>28</v>
@@ -2647,7 +2689,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
@@ -2671,7 +2713,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
@@ -2690,7 +2732,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="8" t="s">
         <v>32</v>
@@ -2710,7 +2752,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="8" t="s">
         <v>33</v>
@@ -2729,7 +2771,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="8" t="s">
         <v>34</v>
@@ -2750,7 +2792,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="8" t="s">
         <v>35</v>
@@ -2769,7 +2811,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="8" t="s">
         <v>36</v>
@@ -2790,7 +2832,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="8" t="s">
         <v>37</v>
@@ -2812,7 +2854,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="8" t="s">
         <v>132</v>
@@ -2833,7 +2875,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="8" t="s">
         <v>135</v>
@@ -2854,7 +2896,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="8" t="s">
         <v>138</v>
@@ -2875,7 +2917,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
@@ -2891,12 +2933,12 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="8" t="s">
         <v>141</v>
@@ -2919,7 +2961,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
@@ -2940,7 +2982,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
@@ -2961,7 +3003,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="8" t="s">
         <v>148</v>
@@ -2987,7 +3029,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
         <v>151</v>
@@ -3004,7 +3046,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="8" t="s">
         <v>41</v>
@@ -3023,7 +3065,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
@@ -3047,7 +3089,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
@@ -3065,13 +3107,13 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
@@ -3090,7 +3132,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="10" t="s">
         <v>46</v>
@@ -3111,7 +3153,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="10" t="s">
         <v>47</v>
@@ -3132,7 +3174,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="10" t="s">
         <v>48</v>
@@ -3153,7 +3195,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="10" t="s">
         <v>50</v>
@@ -3174,7 +3216,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
@@ -3195,7 +3237,7 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="10" t="s">
         <v>52</v>
@@ -3216,7 +3258,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="10" t="s">
         <v>53</v>
@@ -3237,7 +3279,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="8" t="s">
         <v>54</v>
@@ -3256,7 +3298,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="8" t="s">
         <v>55</v>
@@ -3277,7 +3319,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="8" t="s">
         <v>56</v>
@@ -3294,7 +3336,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="8" t="s">
         <v>57</v>
@@ -3313,7 +3355,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
@@ -3331,13 +3373,13 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="8" t="s">
         <v>60</v>
@@ -3358,7 +3400,7 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="8" t="s">
         <v>61</v>
@@ -3374,13 +3416,13 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="8" t="s">
         <v>62</v>
@@ -3401,7 +3443,7 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="8" t="s">
         <v>63</v>
@@ -3417,12 +3459,12 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="8" t="s">
         <v>64</v>
@@ -3443,7 +3485,7 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="8" t="s">
         <v>65</v>
@@ -3464,7 +3506,7 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="8" t="s">
         <v>66</v>
@@ -3486,7 +3528,7 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="8" t="s">
         <v>167</v>
@@ -3510,7 +3552,7 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="8" t="s">
         <v>170</v>
@@ -3531,7 +3573,7 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="11" t="s">
         <v>172</v>
@@ -3555,7 +3597,7 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
@@ -3571,13 +3613,13 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -3606,7 +3648,7 @@
       </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3627,7 +3669,7 @@
       </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>72</v>
       </c>
@@ -3644,9 +3686,9 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>180</v>
@@ -3661,7 +3703,7 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>19</v>
@@ -3683,7 +3725,7 @@
       </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
@@ -3707,7 +3749,7 @@
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
@@ -3721,11 +3763,11 @@
       </c>
       <c r="F72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3736,11 +3778,11 @@
         <v>262</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
@@ -3764,7 +3806,7 @@
       </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
@@ -3788,7 +3830,7 @@
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>27</v>
@@ -3800,7 +3842,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>28</v>
@@ -3817,7 +3859,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
@@ -3843,7 +3885,7 @@
       </c>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
@@ -3861,7 +3903,7 @@
       </c>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>32</v>
@@ -3883,7 +3925,7 @@
       </c>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>33</v>
@@ -3905,7 +3947,7 @@
       </c>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>34</v>
@@ -3929,7 +3971,7 @@
       </c>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>35</v>
@@ -3951,7 +3993,7 @@
       </c>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>36</v>
@@ -3975,7 +4017,7 @@
       </c>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>37</v>
@@ -3999,7 +4041,7 @@
       </c>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>182</v>
@@ -4016,7 +4058,7 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>38</v>
@@ -4030,7 +4072,7 @@
       </c>
       <c r="F87" s="3"/>
       <c r="I87" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J87" s="12" t="s">
         <v>255</v>
@@ -4040,7 +4082,7 @@
       </c>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
@@ -4066,7 +4108,7 @@
       </c>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
@@ -4086,7 +4128,7 @@
       </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>19</v>
@@ -4110,7 +4152,7 @@
       </c>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="C91" s="3" t="s">
         <v>20</v>
@@ -4135,7 +4177,7 @@
       </c>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="C92" s="3" t="s">
         <v>21</v>
@@ -4148,11 +4190,11 @@
       </c>
       <c r="F92" s="3"/>
       <c r="K92" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4162,11 +4204,11 @@
         <v>262</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="C94" s="3" t="s">
         <v>22</v>
@@ -4189,7 +4231,7 @@
       </c>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="C95" s="3" t="s">
         <v>23</v>
@@ -4204,7 +4246,7 @@
         <v>24</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J95" s="12" t="s">
         <v>255</v>
@@ -4214,7 +4256,7 @@
       </c>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>187</v>
@@ -4229,7 +4271,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>188</v>
@@ -4243,17 +4285,17 @@
       </c>
       <c r="F97" s="3"/>
       <c r="I97" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J97" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
@@ -4275,11 +4317,11 @@
         <v>257</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
@@ -4294,11 +4336,11 @@
       <c r="F99" s="3"/>
       <c r="I99" s="18"/>
       <c r="K99" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>19</v>
@@ -4318,11 +4360,11 @@
         <v>267</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="C101" s="3" t="s">
         <v>20</v>
@@ -4343,11 +4385,11 @@
         <v>255</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="C102" s="3" t="s">
         <v>21</v>
@@ -4360,11 +4402,11 @@
       </c>
       <c r="F102" s="3"/>
       <c r="K102" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4374,11 +4416,11 @@
         <v>262</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="C104" s="3" t="s">
         <v>22</v>
@@ -4397,11 +4439,11 @@
         <v>268</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="C105" s="3" t="s">
         <v>23</v>
@@ -4416,17 +4458,17 @@
         <v>24</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J105" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>191</v>
@@ -4443,7 +4485,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>41</v>
@@ -4459,7 +4501,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6" t="s">
@@ -4485,7 +4527,7 @@
       </c>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6" t="s">
@@ -4501,7 +4543,7 @@
         <v>44</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J109" s="17" t="s">
         <v>269</v>
@@ -4511,7 +4553,7 @@
       </c>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6" t="s">
@@ -4531,7 +4573,7 @@
       </c>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="6" t="s">
         <v>46</v>
@@ -4555,7 +4597,7 @@
       </c>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="6" t="s">
         <v>47</v>
@@ -4579,7 +4621,7 @@
       </c>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="6" t="s">
         <v>48</v>
@@ -4603,7 +4645,7 @@
       </c>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="6" t="s">
         <v>50</v>
@@ -4627,7 +4669,7 @@
       </c>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="6" t="s">
         <v>51</v>
@@ -4651,7 +4693,7 @@
       </c>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="6" t="s">
         <v>52</v>
@@ -4675,7 +4717,7 @@
       </c>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="6" t="s">
         <v>53</v>
@@ -4699,7 +4741,7 @@
       </c>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>54</v>
@@ -4716,7 +4758,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>55</v>
@@ -4736,11 +4778,11 @@
         <v>255</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>56</v>
@@ -4754,7 +4796,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>57</v>
@@ -4771,7 +4813,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
@@ -4787,17 +4829,17 @@
         <v>59</v>
       </c>
       <c r="I122" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J122" s="12" t="s">
         <v>269</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>60</v>
@@ -4817,11 +4859,11 @@
         <v>271</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>61</v>
@@ -4835,17 +4877,17 @@
       </c>
       <c r="F124" s="3"/>
       <c r="I124" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J124" s="16" t="s">
         <v>255</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>62</v>
@@ -4865,11 +4907,11 @@
         <v>255</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>63</v>
@@ -4883,17 +4925,17 @@
       </c>
       <c r="F126" s="3"/>
       <c r="I126" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J126" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>64</v>
@@ -4913,11 +4955,11 @@
         <v>255</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>65</v>
@@ -4937,11 +4979,11 @@
         <v>255</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>66</v>
@@ -4961,13 +5003,13 @@
         <v>255</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>74</v>
@@ -4992,9 +5034,9 @@
       </c>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>75</v>
@@ -5019,9 +5061,9 @@
       </c>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>76</v>
@@ -5046,9 +5088,9 @@
       </c>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>77</v>
@@ -5075,9 +5117,9 @@
       </c>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>78</v>
@@ -5104,9 +5146,9 @@
       </c>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>16</v>
@@ -5122,11 +5164,11 @@
       </c>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>7</v>
@@ -5137,21 +5179,21 @@
       <c r="F136" s="3"/>
       <c r="H136" s="7"/>
       <c r="I136" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J136" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>7</v>
@@ -5162,21 +5204,21 @@
       <c r="F137" s="3"/>
       <c r="H137" s="7"/>
       <c r="I137" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="J137" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="J137" s="29" t="s">
-        <v>435</v>
-      </c>
       <c r="K137" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>7</v>
@@ -5187,21 +5229,21 @@
       <c r="F138" s="3"/>
       <c r="H138" s="7"/>
       <c r="I138" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J138" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>7</v>
@@ -5212,17 +5254,17 @@
       <c r="F139" s="3"/>
       <c r="H139" s="7"/>
       <c r="I139" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J139" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="J139" s="29" t="s">
-        <v>438</v>
-      </c>
       <c r="K139" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5235,9 +5277,9 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>79</v>
@@ -5264,9 +5306,9 @@
       </c>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>16</v>
@@ -5285,11 +5327,11 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>7</v>
@@ -5310,11 +5352,11 @@
       </c>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>7</v>
@@ -5329,11 +5371,11 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>7</v>
@@ -5348,11 +5390,11 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>7</v>
@@ -5367,9 +5409,9 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>80</v>
@@ -5394,9 +5436,9 @@
       </c>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>16</v>
@@ -5413,11 +5455,11 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>7</v>
@@ -5428,21 +5470,21 @@
       <c r="F149" s="3"/>
       <c r="H149" s="7"/>
       <c r="I149" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J149" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>7</v>
@@ -5453,21 +5495,21 @@
       <c r="F150" s="3"/>
       <c r="H150" s="7"/>
       <c r="I150" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="J150" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="J150" s="29" t="s">
-        <v>435</v>
-      </c>
       <c r="K150" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>7</v>
@@ -5478,21 +5520,21 @@
       <c r="F151" s="3"/>
       <c r="H151" s="7"/>
       <c r="I151" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J151" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>7</v>
@@ -5503,17 +5545,17 @@
       <c r="F152" s="3"/>
       <c r="H152" s="7"/>
       <c r="I152" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J152" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="J152" s="29" t="s">
-        <v>438</v>
-      </c>
       <c r="K152" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>81</v>
       </c>
@@ -5542,7 +5584,7 @@
       </c>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>83</v>
       </c>
@@ -5563,11 +5605,11 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>7</v>
@@ -5577,21 +5619,21 @@
       </c>
       <c r="F155" s="3"/>
       <c r="I155" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J155" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>7</v>
@@ -5601,21 +5643,21 @@
       </c>
       <c r="F156" s="3"/>
       <c r="I156" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="J156" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="J156" s="29" t="s">
-        <v>435</v>
-      </c>
       <c r="K156" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>7</v>
@@ -5625,21 +5667,21 @@
       </c>
       <c r="F157" s="3"/>
       <c r="I157" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J157" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>7</v>
@@ -5649,17 +5691,17 @@
       </c>
       <c r="F158" s="3"/>
       <c r="I158" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J158" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="J158" s="29" t="s">
-        <v>438</v>
-      </c>
       <c r="K158" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>84</v>
       </c>
@@ -5682,11 +5724,11 @@
         <v>255</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>300</v>
+        <v>459</v>
       </c>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>86</v>
       </c>
@@ -5705,17 +5747,17 @@
         <v>297</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J160" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>88</v>
       </c>
@@ -5736,11 +5778,11 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>7</v>
@@ -5750,21 +5792,21 @@
       </c>
       <c r="F162" s="3"/>
       <c r="I162" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J162" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L162" s="7"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>7</v>
@@ -5774,21 +5816,21 @@
       </c>
       <c r="F163" s="3"/>
       <c r="I163" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="J163" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="J163" s="29" t="s">
-        <v>435</v>
-      </c>
       <c r="K163" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L163" s="7"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>7</v>
@@ -5798,21 +5840,21 @@
       </c>
       <c r="F164" s="3"/>
       <c r="I164" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J164" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>7</v>
@@ -5822,17 +5864,17 @@
       </c>
       <c r="F165" s="3"/>
       <c r="I165" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J165" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="J165" s="29" t="s">
-        <v>438</v>
-      </c>
       <c r="K165" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L165" s="7"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>89</v>
       </c>
@@ -5855,11 +5897,11 @@
         <v>255</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L166" s="7"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>91</v>
       </c>
@@ -5881,14 +5923,14 @@
         <v>219</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L167" s="7"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>93</v>
       </c>
@@ -5909,11 +5951,11 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>7</v>
@@ -5923,21 +5965,21 @@
       </c>
       <c r="F169" s="3"/>
       <c r="I169" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J169" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K169" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L169" s="7"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>7</v>
@@ -5947,21 +5989,21 @@
       </c>
       <c r="F170" s="3"/>
       <c r="I170" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="J170" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="J170" s="29" t="s">
-        <v>435</v>
-      </c>
       <c r="K170" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L170" s="7"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
@@ -5971,21 +6013,21 @@
       </c>
       <c r="F171" s="3"/>
       <c r="I171" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J171" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K171" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L171" s="7"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>7</v>
@@ -5995,17 +6037,17 @@
       </c>
       <c r="F172" s="3"/>
       <c r="I172" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J172" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="J172" s="29" t="s">
-        <v>438</v>
-      </c>
       <c r="K172" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>94</v>
       </c>
@@ -6021,7 +6063,7 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>96</v>
       </c>
@@ -6039,7 +6081,7 @@
       </c>
       <c r="L174" s="7"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>38</v>
@@ -6053,17 +6095,17 @@
       </c>
       <c r="F175" s="3"/>
       <c r="I175" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J175" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K175" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L175" s="7"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3" t="s">
@@ -6085,11 +6127,11 @@
         <v>269</v>
       </c>
       <c r="K176" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L176" s="7"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3" t="s">
@@ -6105,11 +6147,11 @@
       <c r="I177" s="18"/>
       <c r="J177" s="18"/>
       <c r="K177" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L177" s="7"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
         <v>19</v>
@@ -6129,11 +6171,11 @@
         <v>267</v>
       </c>
       <c r="K178" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L178" s="7"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="C179" s="3" t="s">
         <v>20</v>
@@ -6154,11 +6196,11 @@
         <v>255</v>
       </c>
       <c r="K179" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L179" s="7"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="C180" s="3" t="s">
         <v>21</v>
@@ -6171,11 +6213,11 @@
       </c>
       <c r="F180" s="3"/>
       <c r="K180" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L180" s="7"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6185,11 +6227,11 @@
         <v>262</v>
       </c>
       <c r="K181" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L181" s="7"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="C182" s="3" t="s">
         <v>22</v>
@@ -6208,11 +6250,11 @@
         <v>264</v>
       </c>
       <c r="K182" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L182" s="7"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="C183" s="3" t="s">
         <v>23</v>
@@ -6227,17 +6269,17 @@
         <v>24</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J183" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K183" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L183" s="7"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>97</v>
       </c>
@@ -6253,7 +6295,7 @@
       </c>
       <c r="L184" s="7"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>188</v>
@@ -6267,17 +6309,17 @@
       </c>
       <c r="F185" s="3"/>
       <c r="I185" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J185" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K185" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L185" s="7"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3" t="s">
@@ -6299,11 +6341,11 @@
         <v>269</v>
       </c>
       <c r="K186" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L186" s="7"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3" t="s">
@@ -6319,11 +6361,11 @@
       <c r="I187" s="18"/>
       <c r="J187" s="18"/>
       <c r="K187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L187" s="7"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>19</v>
@@ -6340,14 +6382,14 @@
         <v>184</v>
       </c>
       <c r="J188" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K188" t="s">
         <v>313</v>
       </c>
-      <c r="K188" t="s">
-        <v>314</v>
-      </c>
       <c r="L188" s="7"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="C189" s="3" t="s">
         <v>20</v>
@@ -6365,14 +6407,14 @@
         <v>185</v>
       </c>
       <c r="J189" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K189" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L189" s="7"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="C190" s="3" t="s">
         <v>21</v>
@@ -6385,11 +6427,11 @@
       </c>
       <c r="F190" s="3"/>
       <c r="K190" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L190" s="7"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -6399,11 +6441,11 @@
         <v>262</v>
       </c>
       <c r="K191" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L191" s="7"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="C192" s="3" t="s">
         <v>22</v>
@@ -6422,11 +6464,11 @@
         <v>264</v>
       </c>
       <c r="K192" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L192" s="7"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="C193" s="3" t="s">
         <v>23</v>
@@ -6441,17 +6483,17 @@
         <v>24</v>
       </c>
       <c r="I193" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J193" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K193" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L193" s="7"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>98</v>
       </c>
@@ -6470,7 +6512,7 @@
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>100</v>
       </c>
@@ -6482,12 +6524,12 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="H195" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
         <v>19</v>
@@ -6499,17 +6541,17 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="I196" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J196" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L196" s="7"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3" t="s">
@@ -6523,17 +6565,17 @@
       </c>
       <c r="F197" s="3"/>
       <c r="I197" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J197" s="13" t="s">
         <v>274</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L197" s="7"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3" t="s">
@@ -6547,11 +6589,11 @@
       </c>
       <c r="F198" s="3"/>
       <c r="K198" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L198" s="7"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6562,11 +6604,11 @@
         <v>262</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L199" s="7"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3" t="s">
@@ -6586,11 +6628,11 @@
         <v>264</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L200" s="7"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3" t="s">
@@ -6610,11 +6652,11 @@
         <v>255</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L201" s="7"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
         <v>27</v>
@@ -6626,7 +6668,7 @@
       <c r="K202" s="7"/>
       <c r="L202" s="7"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
         <v>28</v>
@@ -6643,7 +6685,7 @@
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3" t="s">
@@ -6665,11 +6707,11 @@
         <v>269</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L204" s="7"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3" t="s">
@@ -6683,11 +6725,11 @@
       </c>
       <c r="F205" s="3"/>
       <c r="K205" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L205" s="7"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
         <v>32</v>
@@ -6705,11 +6747,11 @@
         <v>274</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L206" s="7"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
         <v>33</v>
@@ -6727,11 +6769,11 @@
         <v>255</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L207" s="7"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
         <v>34</v>
@@ -6751,11 +6793,11 @@
         <v>255</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L208" s="7"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>35</v>
@@ -6773,11 +6815,11 @@
         <v>255</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L209" s="7"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>36</v>
@@ -6797,11 +6839,11 @@
         <v>255</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L210" s="7"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>37</v>
@@ -6821,11 +6863,11 @@
         <v>255</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L211" s="7"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
         <v>182</v>
@@ -6842,7 +6884,7 @@
       <c r="K212" s="7"/>
       <c r="L212" s="7"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
         <v>38</v>
@@ -6856,17 +6898,17 @@
       </c>
       <c r="F213" s="3"/>
       <c r="I213" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J213" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L213" s="7"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3" t="s">
@@ -6885,14 +6927,14 @@
         <v>125</v>
       </c>
       <c r="J214" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="K214" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K214" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="L214" s="7"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3" t="s">
@@ -6908,11 +6950,11 @@
       <c r="I215" s="18"/>
       <c r="J215" s="18"/>
       <c r="K215" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L215" s="7"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>19</v>
@@ -6932,11 +6974,11 @@
         <v>267</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L216" s="7"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="C217" s="3" t="s">
         <v>20</v>
@@ -6957,11 +6999,11 @@
         <v>255</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L217" s="7"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="C218" s="3" t="s">
         <v>21</v>
@@ -6974,11 +7016,11 @@
       </c>
       <c r="F218" s="3"/>
       <c r="K218" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L218" s="7"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -6988,11 +7030,11 @@
         <v>262</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L219" s="7"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="C220" s="3" t="s">
         <v>22</v>
@@ -7011,11 +7053,11 @@
         <v>264</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L220" s="7"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="C221" s="3" t="s">
         <v>23</v>
@@ -7030,17 +7072,17 @@
         <v>24</v>
       </c>
       <c r="I221" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J221" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L221" s="7"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
         <v>187</v>
@@ -7055,7 +7097,7 @@
       <c r="K222" s="7"/>
       <c r="L222" s="7"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
         <v>188</v>
@@ -7069,17 +7111,17 @@
       </c>
       <c r="F223" s="3"/>
       <c r="I223" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J223" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L223" s="7"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3" t="s">
@@ -7101,11 +7143,11 @@
         <v>269</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L224" s="7"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3" t="s">
@@ -7121,11 +7163,11 @@
       <c r="I225" s="18"/>
       <c r="J225" s="18"/>
       <c r="K225" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L225" s="7"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
         <v>19</v>
@@ -7145,11 +7187,11 @@
         <v>267</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L226" s="7"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="C227" s="3" t="s">
         <v>20</v>
@@ -7170,11 +7212,11 @@
         <v>255</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L227" s="7"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="C228" s="3" t="s">
         <v>21</v>
@@ -7187,11 +7229,11 @@
       </c>
       <c r="F228" s="3"/>
       <c r="K228" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L228" s="7"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -7201,11 +7243,11 @@
         <v>262</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L229" s="7"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="C230" s="3" t="s">
         <v>22</v>
@@ -7224,11 +7266,11 @@
         <v>264</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L230" s="7"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="C231" s="3" t="s">
         <v>23</v>
@@ -7243,17 +7285,17 @@
         <v>24</v>
       </c>
       <c r="I231" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J231" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L231" s="7"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
         <v>191</v>
@@ -7270,7 +7312,7 @@
       <c r="K232" s="7"/>
       <c r="L232" s="7"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
         <v>41</v>
@@ -7286,7 +7328,7 @@
       <c r="K233" s="7"/>
       <c r="L233" s="7"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6" t="s">
@@ -7308,11 +7350,11 @@
         <v>269</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L234" s="7"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6" t="s">
@@ -7328,17 +7370,17 @@
         <v>44</v>
       </c>
       <c r="I235" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J235" s="17" t="s">
         <v>269</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L235" s="7"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6" t="s">
@@ -7354,11 +7396,11 @@
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
       <c r="K236" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L236" s="7"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="6" t="s">
         <v>46</v>
@@ -7378,11 +7420,11 @@
         <v>274</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L237" s="7"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="6" t="s">
         <v>47</v>
@@ -7402,11 +7444,11 @@
         <v>255</v>
       </c>
       <c r="K238" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L238" s="7"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="6" t="s">
         <v>48</v>
@@ -7426,11 +7468,11 @@
         <v>255</v>
       </c>
       <c r="K239" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L239" s="7"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="6" t="s">
         <v>50</v>
@@ -7450,11 +7492,11 @@
         <v>255</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L240" s="7"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="6" t="s">
         <v>51</v>
@@ -7474,11 +7516,11 @@
         <v>255</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L241" s="7"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="6" t="s">
         <v>52</v>
@@ -7498,11 +7540,11 @@
         <v>255</v>
       </c>
       <c r="K242" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L242" s="7"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="6" t="s">
         <v>53</v>
@@ -7522,11 +7564,11 @@
         <v>255</v>
       </c>
       <c r="K243" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L243" s="7"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
         <v>54</v>
@@ -7543,7 +7585,7 @@
       <c r="K244" s="7"/>
       <c r="L244" s="7"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
         <v>55</v>
@@ -7563,11 +7605,11 @@
         <v>255</v>
       </c>
       <c r="K245" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L245" s="7"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
         <v>56</v>
@@ -7581,7 +7623,7 @@
       <c r="K246" s="7"/>
       <c r="L246" s="7"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
         <v>57</v>
@@ -7598,7 +7640,7 @@
       <c r="K247" s="7"/>
       <c r="L247" s="7"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3" t="s">
@@ -7614,17 +7656,17 @@
         <v>59</v>
       </c>
       <c r="I248" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J248" s="12" t="s">
         <v>269</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L248" s="7"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
         <v>60</v>
@@ -7644,11 +7686,11 @@
         <v>271</v>
       </c>
       <c r="K249" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L249" s="7"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>61</v>
@@ -7662,17 +7704,17 @@
       </c>
       <c r="F250" s="3"/>
       <c r="I250" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J250" s="16" t="s">
         <v>255</v>
       </c>
       <c r="K250" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L250" s="7"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>62</v>
@@ -7692,11 +7734,11 @@
         <v>255</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L251" s="7"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>63</v>
@@ -7710,17 +7752,17 @@
       </c>
       <c r="F252" s="3"/>
       <c r="I252" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J252" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K252" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L252" s="7"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
         <v>64</v>
@@ -7740,11 +7782,11 @@
         <v>255</v>
       </c>
       <c r="K253" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L253" s="7"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>65</v>
@@ -7764,11 +7806,11 @@
         <v>255</v>
       </c>
       <c r="K254" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L254" s="7"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
         <v>66</v>
@@ -7788,11 +7830,11 @@
         <v>255</v>
       </c>
       <c r="K255" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L255" s="7"/>
     </row>
-    <row r="256" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>101</v>
       </c>
@@ -7815,32 +7857,32 @@
       </c>
       <c r="J256" s="12"/>
       <c r="K256" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L256" s="7"/>
     </row>
-    <row r="257" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="257" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H257" s="7"/>
       <c r="I257" s="14"/>
       <c r="J257" s="14"/>
       <c r="K257" s="7"/>
       <c r="L257" s="7"/>
     </row>
-    <row r="258" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="258" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H258" s="7"/>
       <c r="I258" s="14"/>
       <c r="J258" s="14"/>
       <c r="K258" s="7"/>
       <c r="L258" s="7"/>
     </row>
-    <row r="259" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="259" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H259" s="7"/>
       <c r="I259" s="14"/>
       <c r="J259" s="14"/>
       <c r="K259" s="7"/>
       <c r="L259" s="7"/>
     </row>
-    <row r="260" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="260" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G260" t="s">
         <v>227</v>
       </c>
@@ -7850,7 +7892,7 @@
       <c r="K260" s="7"/>
       <c r="L260" s="7"/>
     </row>
-    <row r="261" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="261" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H261" s="7"/>
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
@@ -7870,7 +7912,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7883,7 +7928,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
